--- a/output_data/course_catalogue.xlsx
+++ b/output_data/course_catalogue.xlsx
@@ -6,21 +6,18 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-05-23" r:id="rId3" sheetId="1"/>
+    <sheet name="2020-05-26" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="393">
   <si>
     <t>course_repo_names</t>
   </si>
   <si>
-    <t>last_updated</t>
-  </si>
-  <si>
-    <t>course_location</t>
+    <t>site_link</t>
   </si>
   <si>
     <t>course_title</t>
@@ -92,382 +89,1039 @@
     <t>Paragraph 22</t>
   </si>
   <si>
-    <t>/datasciencecampus/DSCA_DSWR</t>
-  </si>
-  <si>
-    <t>/datasciencecampus/DSCA_intropython</t>
-  </si>
-  <si>
-    <t>/datasciencecampus/DSCA_NLPWR</t>
-  </si>
-  <si>
-    <t>/datasciencecampus/DSCA_ARP</t>
-  </si>
-  <si>
-    <t>/datasciencecampus/DSCA_Intro-R</t>
-  </si>
-  <si>
-    <t>/datasciencecampus/DSCA_Stats4DS</t>
-  </si>
-  <si>
-    <t>/datasciencecampus/DSCA_advNLPpython</t>
-  </si>
-  <si>
-    <t>/datasciencecampus/DSCA_introNLPpython</t>
-  </si>
-  <si>
-    <t>/datasciencecampus/DSCA_ML_theory</t>
-  </si>
-  <si>
-    <t>/datasciencecampus/DSCA_Version-controlled-RStudio-projects</t>
-  </si>
-  <si>
-    <t>/datasciencecampus/DSCA_Version-control-with-Git-Github</t>
-  </si>
-  <si>
-    <t>Apr 16, 2020</t>
-  </si>
-  <si>
-    <t>Apr 22, 2020</t>
-  </si>
-  <si>
-    <t>Apr 21, 2020</t>
-  </si>
-  <si>
-    <t>Apr 9, 2020</t>
-  </si>
-  <si>
-    <t>May 14, 2020</t>
+    <t>Paragraph 23</t>
+  </si>
+  <si>
+    <t>access-to-services</t>
+  </si>
+  <si>
+    <t>algorithmia-segment</t>
+  </si>
+  <si>
+    <t>algorithmia-vegetation</t>
+  </si>
+  <si>
+    <t>anomaly-detection</t>
+  </si>
+  <si>
+    <t>awesome-campus</t>
+  </si>
+  <si>
+    <t>clapp</t>
+  </si>
+  <si>
+    <t>coding-standards</t>
+  </si>
+  <si>
+    <t>coffee-and-coding</t>
+  </si>
+  <si>
+    <t>coffee-and-coding-ldn</t>
+  </si>
+  <si>
+    <t>consultation-analysis-nafw</t>
+  </si>
+  <si>
+    <t>deploy-dash-with-gcp</t>
+  </si>
+  <si>
+    <t>DSCA_advNLPpython</t>
+  </si>
+  <si>
+    <t>DSCA_ARP</t>
+  </si>
+  <si>
+    <t>DSCA_DSWR</t>
+  </si>
+  <si>
+    <t>DSCA_ggplot-leaflet-map-training_dev</t>
+  </si>
+  <si>
+    <t>DSCA_Intro-R</t>
+  </si>
+  <si>
+    <t>DSCA_introNLPpython</t>
+  </si>
+  <si>
+    <t>DSCA_intropython</t>
+  </si>
+  <si>
+    <t>DSCA_ML_theory</t>
+  </si>
+  <si>
+    <t>DSCA_NLPWR</t>
+  </si>
+  <si>
+    <t>DSCA_Stats4DS</t>
+  </si>
+  <si>
+    <t>DSCA_Version-control-with-Git-Github</t>
+  </si>
+  <si>
+    <t>DSCA_Version-controlled-RStudio-projects</t>
+  </si>
+  <si>
+    <t>eclipse</t>
+  </si>
+  <si>
+    <t>employmentProspects</t>
+  </si>
+  <si>
+    <t>energy-efficiency</t>
+  </si>
+  <si>
+    <t>finbins</t>
+  </si>
+  <si>
+    <t>gcp-function-deployment</t>
+  </si>
+  <si>
+    <t>google-mobility-reports-data</t>
+  </si>
+  <si>
+    <t>gov-uk-rap-materials</t>
+  </si>
+  <si>
+    <t>skeletor-public</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/access-to-services</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/algorithmia-segment</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/algorithmia-vegetation</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/anomaly-detection</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/awesome-campus</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/clapp</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/coding-standards</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/coffee-and-coding</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/coffee-and-coding-ldn</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/consultation-analysis-nafw</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/deploy-dash-with-gcp</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/DSCA_advNLPpython</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/DSCA_ARP</t>
   </si>
   <si>
     <t>https://github.com/datasciencecampus/DSCA_DSWR</t>
   </si>
   <si>
+    <t>https://github.com/datasciencecampus/DSCA_ggplot-leaflet-map-training_dev</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/DSCA_Intro-R</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/DSCA_introNLPpython</t>
+  </si>
+  <si>
     <t>https://github.com/datasciencecampus/DSCA_intropython</t>
   </si>
   <si>
+    <t>https://github.com/datasciencecampus/DSCA_ML_theory</t>
+  </si>
+  <si>
     <t>https://github.com/datasciencecampus/DSCA_NLPWR</t>
   </si>
   <si>
-    <t>https://github.com/datasciencecampus/DSCA_ARP</t>
-  </si>
-  <si>
-    <t>https://github.com/datasciencecampus/DSCA_Intro-R</t>
-  </si>
-  <si>
     <t>https://github.com/datasciencecampus/DSCA_Stats4DS</t>
   </si>
   <si>
-    <t>https://github.com/datasciencecampus/DSCA_advNLPpython</t>
-  </si>
-  <si>
-    <t>https://github.com/datasciencecampus/DSCA_introNLPpython</t>
-  </si>
-  <si>
-    <t>https://github.com/datasciencecampus/DSCA_ML_theory</t>
+    <t>https://github.com/datasciencecampus/DSCA_Version-control-with-Git-Github</t>
   </si>
   <si>
     <t>https://github.com/datasciencecampus/DSCA_Version-controlled-RStudio-projects</t>
   </si>
   <si>
-    <t>https://github.com/datasciencecampus/DSCA_Version-control-with-Git-Github</t>
+    <t>https://github.com/datasciencecampus/eclipse</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/employmentProspects</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/energy-efficiency</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/finbins</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/gcp-function-deployment</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/google-mobility-reports-data</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/gov-uk-rap-materials</t>
+  </si>
+  <si>
+    <t>https://github.com/datasciencecampus/skeletor-public</t>
+  </si>
+  <si>
+    <t>Access to services</t>
+  </si>
+  <si>
+    <t>Algorithmia PSPNet image segmentation</t>
+  </si>
+  <si>
+    <t>Algorithmia vegetation detection</t>
+  </si>
+  <si>
+    <t>anomaly_detection</t>
+  </si>
+  <si>
+    <t>Awesome Campus</t>
+  </si>
+  <si>
+    <t>Cluster analysis and post-processing app</t>
+  </si>
+  <si>
+    <t>Coding Standards</t>
+  </si>
+  <si>
+    <t>ONS Newport Coffee &amp; Coding</t>
+  </si>
+  <si>
+    <t>ONS London Coffee &amp; Coding</t>
+  </si>
+  <si>
+    <t>No readme header is present.</t>
+  </si>
+  <si>
+    <t>Deploy Dash with GCP</t>
+  </si>
+  <si>
+    <t>NLPADVLIVE</t>
+  </si>
+  <si>
+    <t>ARP</t>
   </si>
   <si>
     <t>DSWR</t>
   </si>
   <si>
-    <t>No readme header is present.</t>
+    <t>ggplot and leaflet map tutorial</t>
+  </si>
+  <si>
+    <t>DSCA-Intro-R-dev</t>
+  </si>
+  <si>
+    <t>Theory in Machine Learning</t>
   </si>
   <si>
     <t>NLPWR</t>
   </si>
   <si>
-    <t>ARP</t>
-  </si>
-  <si>
-    <t>DSCA-Intro-R-dev</t>
-  </si>
-  <si>
     <t>Stats4DS</t>
   </si>
   <si>
-    <t>NLPADVLIVE</t>
-  </si>
-  <si>
-    <t>Theory in Machine Learning</t>
+    <t>Git and Github for beginners</t>
   </si>
   <si>
     <t>Version controlled RStudio projects</t>
   </si>
   <si>
-    <t>Git and Github for beginners</t>
+    <t>ECLIPSE</t>
+  </si>
+  <si>
+    <t>Employment Prospects Application</t>
+  </si>
+  <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t>finbins- the FinBins project's repo.</t>
+  </si>
+  <si>
+    <t>Functions Framwowrk for Python</t>
+  </si>
+  <si>
+    <t>Reproducible Analytical Pipeline learning materials</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>This is currently a development project. Hope is that this might become a Masters/PhD research project at some stage. Search for new ideas and concepts continue..</t>
+  </si>
+  <si>
+    <t>This app is a alpha version of the clustering app. If changes to the UI are required feel free to implement them and create a pull request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Automating consultation analysis: bringing data science to the heart of decision making</t>
+  </si>
+  <si>
+    <t>This repository contains two simple dash applications that can be deployed with Google Cloud Platform (GCP).</t>
+  </si>
+  <si>
+    <t>A repo to deposit teaching materials for Automated Report Production with RStudio.</t>
   </si>
   <si>
     <t>A repo to share teaching materials for Data Science with R.</t>
   </si>
   <si>
+    <t>ggplot and leaflet map training material for creating plots and maps.</t>
+  </si>
+  <si>
+    <t>Introduction to R course</t>
+  </si>
+  <si>
+    <t>This repository is intended to provide you with the documents you need to include to get a repository started and give guidance as to what the contents should be. The minimum content contained in the README.md for your project should be (in the most suitable order for the content):</t>
+  </si>
+  <si>
     <t>A repo for training materials for the "NLP with R" course.</t>
   </si>
   <si>
-    <t>A repo to deposit teaching materials for Automated Report Production with RStudio.</t>
-  </si>
-  <si>
-    <t>Introduction to R course</t>
-  </si>
-  <si>
     <t>Brief Description:</t>
   </si>
   <si>
-    <t>This repository is intended to provide you with the documents you need to include to get a repository started and give guidance as to what the contents should be. The minimum content contained in the README.md for your project should be (in the most suitable order for the content):</t>
+    <t>A repo to deposit teaching material for "Version control with Git and Github"</t>
   </si>
   <si>
     <t>A repo to deposit learning materials for "Version controlled projects in RStudio"</t>
   </si>
   <si>
-    <t>A repo to deposit teaching material for "Version control with Git and Github"</t>
+    <t>Evaluating CaLorie Intake for Population Statistical Estimates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>This repo provides the material to support the work undertaken by the Data Science Campus to explore using machine learing to predict energy efficiency.</t>
+  </si>
+  <si>
+    <t>This repo contains a number of files that read data from tree datasets provided in csv format, i.e. FSS, IDBR and FCA register. Then it links and cleans the data to do an exhaustive feature selection search by training/evaluating a Random Forest (RF) classifier on each feature combination. Results are saved to the log file. Also a confusion matrix for each is created in each combination.</t>
+  </si>
+  <si>
+    <t>The purpose of this repo is to outline how GCP Functions can be deployed in an automated way by making a change in the source code's GitHub repo and the pipeline deploying to GCP Function.</t>
+  </si>
+  <si>
+    <t>07/05/2020 Revised lookup tables and boundaries file have been provided in the geography folder to reflect the changes made in the published Google Mobility data in the separation of Nottingham and Nottinghamshire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  </t>
+  </si>
+  <si>
+    <t>A template for public repositories.</t>
+  </si>
+  <si>
+    <t>The purpose of this project is to develop a tool that uses open-source transport data to analyse multi-modal travel in the UK. The project was initiated after discussions with Welsh Government and pinning down the need for a tool that would offer travel information regarding access to health, social and other services. This information will help officials identify areas with access difficulties and help policy makers with up to date travel details. Welsh Government is planning to use this tool to address areas such as the Welsh Index of Multiple Deprivation (WIMD), Valleys Taskforce, South Wales Metro and others.</t>
+  </si>
+  <si>
+    <t>Part of trees/ungp.</t>
+  </si>
+  <si>
+    <t>Part of trees/ungp</t>
+  </si>
+  <si>
+    <t>Anomaly detection in the age of deep learning</t>
+  </si>
+  <si>
+    <t>A repository containing an index of our projects and tools that we have published.</t>
+  </si>
+  <si>
+    <t>On linux and MacOS, please install make and run make quickstart, this will install the required python packages and run the app.</t>
+  </si>
+  <si>
+    <t>This book provides style guidelines for Data Science projects across government.</t>
+  </si>
+  <si>
+    <t>A public repository to hold resources and notes from ONS Coffee &amp; Coding sessions in Newport. GitHub repository idea and layout lovingly sourced from Department for Transport (DfT)'s repo. Interested in what other Government Departments have coffee and coding? Check out the Government RAP website.</t>
+  </si>
+  <si>
+    <t>The aim of the Coffee &amp; Coding meetups is to nurture, enable and encourage a vibrant, supportive and inclusive coding community at ONS. Coffee &amp; Coding provides a regular opportunity for people within ONS who are interested in coding to share skills and knowledge, provide advice and guidance to each other and generally network and get to know each other.</t>
+  </si>
+  <si>
+    <t>This project analyses free text responses to a consultation gathering opinions on a recent consultation of National Assembly for Wales.</t>
+  </si>
+  <si>
+    <t>More training materials can be found on our GitHub pages training page.</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>The order of the material taught in DSWR is</t>
   </si>
   <si>
+    <t>You only need to install the following two packages (okay, one of them is the tidyverse, so it's a bit more than just two packages).</t>
+  </si>
+  <si>
+    <t>With the inclusion of all documents included here, your repository should meet all of the recommended community standards on github.com.</t>
+  </si>
+  <si>
     <t>Natural Language Processing with R is a first introduction to the analysis of text data.</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>This course introduces the basics of carrying out a statistical analysis in Python. It covers exploratory data analysis, constructing and interpreting linear and generalized linear models, and introduces Bayesian modelling.</t>
   </si>
   <si>
-    <t>With the inclusion of all documents included here, your repository should meet all of the recommended community standards on github.com.</t>
+    <t>The ECLIPSE project aimed to explore the apparent issue of under-reporting in food consumption surveys.</t>
+  </si>
+  <si>
+    <t>This app is to be used for the dissemination of GB employment statistics using data published here</t>
+  </si>
+  <si>
+    <t>Specifically we explore:</t>
+  </si>
+  <si>
+    <t>Main files are:</t>
+  </si>
+  <si>
+    <t>The Functions Framework allows you to write functions and run them in Dev then promote them to Cloud Functions in GCP or Cloud Run. Take a look at official docs for more details.</t>
+  </si>
+  <si>
+    <t>17/04/2020: Google now make this data available in csv format format, please source the data from there and note the additional documentation. There will be small differences between the data we have extracted up until now and that published, usually that is around +/- 1% due to rounding.</t>
+  </si>
+  <si>
+    <t>A collection of documents describing what a Reproducible Analytical Pipeline is and why it is useful. We will continue to add resources to this repository as we create them.</t>
+  </si>
+  <si>
+    <t>Examples of research questions that were discussed with the Welsh Government and can potential be answered using the tool are:</t>
+  </si>
+  <si>
+    <t>This is a street-level image segmentation algorithm hosted on the methods.officialstatistics.org Algorithmia platform.</t>
+  </si>
+  <si>
+    <t>This algorithm accepts as input a directory of images hosted on algorithmia, amazon s3 or dropbox and returns the percentage vegetation detected in each image.</t>
+  </si>
+  <si>
+    <t>Background: Anomalies can be broadly identified as patterns in datasets that do not follow a well-defined trend of normal behaviour, and the goal of anomaly detection is to detect all such behaviour if possible. Anomalies can arise out of errors in the data collection process but sometimes, and somewhat more interestingly, can be  indicative of a new, previously unknown, underlying process. Anomaly detection is a burgeoning research field and has a diverse range of applications including fraud detection, health care monitoring, fault detection in machines to name a few.</t>
+  </si>
+  <si>
+    <t>This is for easy access to the relevent repositories and examples</t>
+  </si>
+  <si>
+    <t>make quickstart is identical to running make install &amp; make run</t>
+  </si>
+  <si>
+    <t>Please note that this project is released with a Contributor Code of Conduct. By participating in this project you agree to abide by its terms.</t>
+  </si>
+  <si>
+    <t>If you are interested in attending the London ONS Coffee and Coding please check their Github repo for more information: https://github.com/datasciencecampus/coffee-and-coding-LDN.</t>
+  </si>
+  <si>
+    <t>The format is generally 40 minutes for a presentation and questions to the presenter/s followed by an informal Code Surgery. The presentations usually take the form of a demonstration of a tool or technique and/or a show and tell of work done within the department using these methods. From time to time we will invite external speakers. The Code Surgery provides the opportunity for people to pose any coding related queries/ruminations/ideas to the gathered coding community.</t>
+  </si>
+  <si>
+    <t>Dr Chaitanya Joshi</t>
+  </si>
+  <si>
+    <t>To run these examples, clone this repository using:</t>
+  </si>
+  <si>
+    <t>R is a powerful tool for data analysis and, when coupled with RStudio, the reproducibility feature of coding is further enhanced. Using RStudio and literate programming it is possible to automate the production of reports, replacing tedious and irreproducible practices of copying and pasting.</t>
   </si>
   <si>
     <t>Data Science with R - Course Description and pre-requisites</t>
   </si>
   <si>
+    <t>These slides are an updated version of gadenbuie's [gentle introduction to ggplot2[(https://pkg.garrickadenbuie.com/gentle-ggplot2/#1).</t>
+  </si>
+  <si>
+    <t>Once you have copied this directory you should replace the content of this file with the description of your work.</t>
+  </si>
+  <si>
     <t>The course is based on the "tidy text" approach (tidytext package).</t>
   </si>
   <si>
-    <t>R is a powerful tool for data analysis and, when coupled with RStudio, the reproducibility feature of coding is further enhanced. Using RStudio and literate programming it is possible to automate the production of reports, replacing tedious and irreproducible practices of copying and pasting.</t>
-  </si>
-  <si>
     <t>Aims, Objectives and Intended Learning Outcomes:</t>
   </si>
   <si>
-    <t>Once you have copied this directory you should replace the content of this file with the description of your work.</t>
+    <t>Sharing code is as important as sharing data for transparency and reproducibility.</t>
   </si>
   <si>
     <t>RStudio has the ability to use version control for R projects using a very easy to use graphical interface.</t>
   </si>
   <si>
-    <t>Sharing code is as important as sharing data for transparency and reproducibility.</t>
+    <t>Data from the National Diet and Nutrition Survey (NDNS) Years 1-6, 2008/09-2013/14 were obtained from The UK Data Service. https://www.ukdataservice.ac.uk/</t>
+  </si>
+  <si>
+    <t>In order to run this app you will need to install gdal version 2.0 or higher, V8 version 3.15 or higher and udunits.</t>
+  </si>
+  <si>
+    <t>The full report gives detail on the data sets used. Please note for data security reasons it isn't possible to publish the code for everything contained with this report.</t>
+  </si>
+  <si>
+    <t>Install functions framework: pip install functions-framework</t>
+  </si>
+  <si>
+    <t>Archive of data related to the Google Community Mobility Reports published 03/04/2020 and 10/04/2020.</t>
+  </si>
+  <si>
+    <t>A Reproducible Analytical Pipeline (RAP) brings together code and data to generate outputs. The RAP pipeline is built within a version control system (e.g. git) to create a transparent production process.</t>
+  </si>
+  <si>
+    <t>Access to services: What is the average return trip travel time to the nearest service, per Lower Super Output Area (LSOA)?</t>
+  </si>
+  <si>
+    <t>The implementation (currently) makes use of a Chainer implementation of a Pyramid Scene Parsing Network (PSPNet) which has been included as a git submodule.</t>
+  </si>
+  <si>
+    <t>With algorithmia algo client:</t>
+  </si>
+  <si>
+    <t>Problem: With the advancements in machine learning techniques and proliferation in computing power in recent years, deep learning has specifically gained widespread attention as a testbed to learn intricate underlying representation of often complex real world datasets.The current project thus aims to compare the performance of deep learning based anomaly detection methods with more traditional approaches for anomaly detection  such as k-means, Isolation Forests and SVM. This comparison is particularly important for large scale datasets where performance of traditional models is expected to be less than optimal as it would be difficult for these models to capture complex structure of multidimensional real world datasets.</t>
+  </si>
+  <si>
+    <t>The Green Spaces project is a tool that can render GeoJSON polygons over aerial imagery and analyse pixels contained within the polygons. Its primary use case is to determine the vegetation coverage of residential gardens (defined as polygons in GeoJSON) using aerial imagery stored in OSGB36 format tiles, although basic support is also present for Web Mercator.</t>
+  </si>
+  <si>
+    <t>NOTE: set up the config.toml file beforehand to point to the correct dataset path.</t>
+  </si>
+  <si>
+    <t>Get in touch at: coffee.coding@ons.gov.uk, we welcome suggestions and ideas for future events.</t>
+  </si>
+  <si>
+    <t>London Meeting Room 8</t>
+  </si>
+  <si>
+    <t>Data Science techniques were used to analyse responses to the National Assembly for Wales Children,Young People and Education Committee’s consultation on the Children (Abolition of Defence of Reasonable Punishment) (Wales) Bill (“the Bill”) - introduced by Julie Morgan AM, Deputy Minister for Health and Social Services. The Assembly’s Business Committee had remitted the Bill to the Children, Young People and Education Committee.</t>
+  </si>
+  <si>
+    <t>In this 1-day course (ca. 6 hours), based on a case-study, we combine data from different sources to produce four reports on HIV prevalence, one for each of the four continents, on a given year. We learn how the reports can be produced automatically when data for a new year arrives. All of this without leaving the RStudio environment. As a bonus we learn how to use maps in R.</t>
   </si>
   <si>
     <t>This course gives the essential knowledge to get started with a data science project in R using the Tidyverse https://www.tidyverse.org.</t>
   </si>
   <si>
+    <t>Whilst no mandatory recommendation is made as to how to structure the directories or manage the project itself - as this will vary based on the needs and the abilities of those doing the development work - guidelines are provided below on how to conduct your project in an Agile manner.</t>
+  </si>
+  <si>
     <t>The intended audience is analysts who have not worked with text data before but are used to working with numerical and strings data.</t>
   </si>
   <si>
-    <t>In this 1-day course (ca. 6 hours), based on a case-study, we combine data from different sources to produce four reports on HIV prevalence, one for each of the four continents, on a given year. We learn how the reports can be produced automatically when data for a new year arrives. All of this without leaving the RStudio environment. As a bonus we learn how to use maps in R.</t>
-  </si>
-  <si>
     <t>Chapter 1: Exploratory Data Analysis</t>
   </si>
   <si>
-    <t>Whilst no mandatory recommendation is made as to how to structure the directories or manage the project itself - as this will vary based on the needs and the abilities of those doing the development work - guidelines are provided below on how to conduct your project in an Agile manner.</t>
+    <t>Many analysts and researchers self-learn coding and are not trained in software-engineering standards about how to document code, writing etiquette and testing. However, the fact that code is not written to a high standard should not prevent code sharing. The benefits of open code outweigh the potential unpleasantness experienced by the expert code writer.</t>
   </si>
   <si>
     <t>In this workshop we will focus on Git/GitHub-version-controlled R projects.</t>
   </si>
   <si>
-    <t>Many analysts and researchers self-learn coding and are not trained in software-engineering standards about how to document code, writing etiquette and testing. However, the fact that code is not written to a high standard should not prevent code sharing. The benefits of open code outweigh the potential unpleasantness experienced by the expert code writer.</t>
+    <t>The analysis made use of bio-metric data collected for a sub-sample of NDNS participants which provided an objective estimate of energy expended, measured using Doubly Labeled Water. This was compared with individual energy intake estimates and percentage difference was calculated and modelled using demograohic and anthropomorphic characteristics.</t>
+  </si>
+  <si>
+    <t>You can install the package using</t>
+  </si>
+  <si>
+    <t>The study is implemented through a series of files that can be found in the ./01_code folder. Make sure you read the ./01_code/config-explanation.md first on how you should set up your config file, collect required data sets and name all your files.</t>
+  </si>
+  <si>
+    <t>Create main.py</t>
+  </si>
+  <si>
+    <t>This repository contains data extracted from Google Community Mobility Reports published on the 03/04/2020 and 10/04/2020, together with supporting boundaries based on the current UK administrative geography to allow mapping and linking with other sources of data.</t>
+  </si>
+  <si>
+    <t>The Valleys Taskforce: What is the proportion of people that can access a working place, per working age group per LSOA?</t>
+  </si>
+  <si>
+    <t>Please see example code in src/client.</t>
+  </si>
+  <si>
+    <t>The algo. accepts 2 arguments:</t>
+  </si>
+  <si>
+    <t>Action: The project will begin with a brief literature review of the field, with a special focus on identifying relevant data sources and narrowing down the most relevant deep learning models suited for the model. The project will mainly focus on investigating Unsupervised deep anomaly detection methods, if a suitable data source with labelled dataset is identified then Semi-supervised and Supervised deep anomaly detection methods can be investigated as well. Various methods can be explored under deep learning based anomaly detection including Generative models and Deep Belief Networks.</t>
+  </si>
+  <si>
+    <t>[link]</t>
+  </si>
+  <si>
+    <t>In order for the app to run correctly you will need python 3 (tested on 3.7.2) and the python packages specified in the requirements file.</t>
+  </si>
+  <si>
+    <t>Our next event will be Coffee &amp; Coding: Building a python package for reproducible statistical tables on Wed 27 May 2020, 13:00-14:00.</t>
+  </si>
+  <si>
+    <t>Tuesday 24 Mar 2020 11:00 - 12:30</t>
+  </si>
+  <si>
+    <t>The Welsh Government’s stated purpose for the Bill is to abolish the common law defence of reasonable punishment so it is no longer available in Wales to parents or those acting in loco parentis as a defence to assault or battery against a child. The Welsh Government states that the Bill is intended to support children’s rights by prohibiting the use of physical punishment, through removal of this defence.</t>
+  </si>
+  <si>
+    <t>In this course you will</t>
   </si>
   <si>
     <t>We learn to tell stories with data using the scientific data analysis workflow and analytic tools based on the R system.</t>
   </si>
   <si>
+    <t>If your project is complex enough to warrant a documentation website please add a branch called gh_pages and place your documentation (in html format) there. Once you do this your html files will be rendered at https://datasciencecampus.github.io/projectName</t>
+  </si>
+  <si>
     <t>A pre-requisite for this course is "Data Science with R" https://github.com/datasciencecampus/DSWR.</t>
   </si>
   <si>
-    <t>In this course you will</t>
-  </si>
-  <si>
     <t>By the end of Chapter 1, learners should know:</t>
   </si>
   <si>
-    <t>If your project is complex enough to warrant a documentation website please add a branch called gh_pages and place your documentation (in html format) there. Once you do this your html files will be rendered at https://datasciencecampus.github.io/projectName</t>
+    <t>Publications that make the used code available have, generally higher impact than publications where code is not available.</t>
   </si>
   <si>
     <t>The pre-requisites for this workshop are that you have taken the "Version  control with Git and GitHub" workshop and that you are familiar with R and RStudio, preferably by having taken "Data Science with R".</t>
   </si>
   <si>
-    <t>Publications that make the used code available have, generally higher impact than publications where code is not available.</t>
+    <t>This repo contains the code used to for the data analysis. All analysis was carried out using STATA 14. The master.do file should be used to set up the analysis, including the installation of required programs. Weaver is required to print markdoc files of output embedded in code. https://github.com/haghish/weaver. The code makes use of a file path which points to a local folder containing the code and data folder from the UK Data Service, this should be set using a global macro named 'mypath'.</t>
+  </si>
+  <si>
+    <t>If you would like to download images of the maps, you will need to have PhatomJS installed; you can install PhantomJS using webshot::install_phantomjs().</t>
+  </si>
+  <si>
+    <t>Run function locally using following command: functions-framework --target=hello</t>
+  </si>
+  <si>
+    <t>The latest data is available in Microsoft Office .xlsx format here, which includes the entire data extracted from the UK report, as well as other international reports. Other datasets include:</t>
+  </si>
+  <si>
+    <t>Cadw website: What is the access to Cadw properties from tourist accommodations in specific travel times?</t>
+  </si>
+  <si>
+    <t>There are 2 options to choose from.</t>
+  </si>
+  <si>
+    <t>This example creates a simple dash application that reads in a locally-stored file in data folder and creates a graph from adding and multiplying the numbers in data.csv. We then deploy it publically to Google Cloud Platform (GCP).</t>
+  </si>
+  <si>
+    <t>In order to quickly install this run the following command in while in the app folder:</t>
+  </si>
+  <si>
+    <t>Good Practice Tables (gptables) is a Python package for reproducibly writing statistical tables, which makes it easy to follow good practice guidance. This beginner-to-intermediate session will discuss why reproducibility is important and will introduce how creating and using packages can assure reproducibility in your analyses.</t>
+  </si>
+  <si>
+    <t>A public repository to hold resources and notes from ONS Coffee &amp; Coding sessions in London. GitHub repository idea and layout lovingly sourced from Department for Transport (DfT)'s repo. Interested in what other Government Departments have coffee and coding? Check out the Government RAP website.</t>
+  </si>
+  <si>
+    <t>Moe details about the consultation can be found here</t>
+  </si>
+  <si>
+    <t>further your knowledge of R markdown: You will further understand the YAML header of a R Markdown document and how to specify parameters that the document will depend on;</t>
   </si>
   <si>
     <t>In this two-day course we learn about the data science workflow</t>
   </si>
   <si>
+    <t>There are two ways to use this template:</t>
+  </si>
+  <si>
     <t>In this course you learn about carrying out exploratory analysis of text data, you are introduced to sentiment analysis using sentiment lexicons and an introduction to topic modelling is given (package topicmodels).</t>
   </si>
   <si>
-    <t>further your knowledge of R markdown: You will further understand the YAML header of a R Markdown document and how to specify parameters that the document will depend on;</t>
-  </si>
-  <si>
     <t>Chapter 2: Model Basics</t>
   </si>
   <si>
-    <t>There are two ways to use this template:</t>
-  </si>
-  <si>
     <t>One important tool for code quality and code sharing is a version control system (VCS).</t>
   </si>
   <si>
+    <t>The master file runs the entire program of analysis including preparing the raw data files, formatting variables, creating derived values, calculating percentage differences between self-reported and bio-metric measures. The analysis produces a model of estimated error, which are stored locally and are then applied to the test sample using the stored linear equation. The model estimates can be used to predict error on any data set containing the variables used in the mode and adjust energy intake values to be used for aggregated averages. Note that this method is not suitable for predicting individual differences.</t>
+  </si>
+  <si>
+    <t>To use the app, once you have it installed run</t>
+  </si>
+  <si>
+    <t>target should be the function that is invoked when the function is called.</t>
+  </si>
+  <si>
+    <t>Headline data for all countries is available from Matt Kerlogue's repository</t>
+  </si>
+  <si>
+    <t>South Wales Metro programme: What are the benefits after the completion of Phase 2 of SWM programme in terms of:</t>
+  </si>
+  <si>
+    <t>The algorithm accepts 2 arguments: src and dst.</t>
+  </si>
+  <si>
+    <t>Please see our paper for more details.</t>
+  </si>
+  <si>
+    <t>The app is then ready to launch by simply tweaking the config file and by launching the app from the terminal as follows:</t>
+  </si>
+  <si>
+    <t>This event will take place via Google Hangouts, the link will be included in the confirmation email you receive when you register to attend.</t>
+  </si>
+  <si>
+    <t>If you would like to attend the ONS Newport Coffee and Coding please check their Github repo for more information https://github.com/datasciencecampus/coffee-and-coding.</t>
+  </si>
+  <si>
+    <t>http://senedd.assembly.wales/mgIssueHistoryHome.aspx?IId=24674</t>
+  </si>
+  <si>
+    <t>use functional programming: you will learn how to use the function(al)s map() and walk() from the package purrr to apply a function to the entries of a vector or a list. This will be useful when we read the data in and also to generate all the reports, one per continent, at once;</t>
+  </si>
+  <si>
     <t>Reflection -  Collection - Preparation - Analysis - Reporting</t>
   </si>
   <si>
+    <t>At the top of the main page of this repo is a green Use this template button, which will clone this repository into a new repository of your choice. The Issue Templates are also cloned. Unfortunately, Issue Labels, and Project Boards are not cloned automatically, and you will have to manually add these (guidelines below).</t>
+  </si>
+  <si>
     <t>At the end of this course you should be able to set text data into a form that can be used for analysis, carry out cleaning of text data, exploratory analysis of text data, use meta-data to produce interesting visual displays depicting features of the text data, carry out sentiment analysis using  sentiment lexicons and discover topics in a corpus.</t>
   </si>
   <si>
-    <t>use functional programming: you will learn how to use the function(al)s map() and walk() from the package purrr to apply a function to the entries of a vector or a list. This will be useful when we read the data in and also to generate all the reports, one per continent, at once;</t>
-  </si>
-  <si>
     <t>By the end of Chapter 2, learners should know:</t>
   </si>
   <si>
-    <t>At the top of the main page of this repo is a green Use this template button, which will clone this repository into a new repository of your choice. The Issue Templates are also cloned. Unfortunately, Issue Labels, and Project Boards are not cloned automatically, and you will have to manually add these (guidelines below).</t>
-  </si>
-  <si>
     <t>A version control system is a tool that manages changes made to the files and directories in a project.</t>
   </si>
   <si>
+    <t>The analysis also includes a sensitivity analysis on error estimates carried out using bootstrapped sampling. An output containing model coefficients from 1000 models are produced from the bootstrapped samples which can be used to explore the variation in error associated with each individual factor within the model.</t>
+  </si>
+  <si>
+    <t>Open http://localhost:8080 in your browser and see the response.</t>
+  </si>
+  <si>
+    <t>The Data Science Campus has extracted the data from Google’s UK report, and other international reports, to make them publicly available to all. We developed this Python tool (mobius) to achieve this.</t>
+  </si>
+  <si>
+    <t>The project relies entirely on open-source data coming from different sources and in various formats. Data for car, bicycle, on-foot, bus and train travel is combined to build different scenarios and possible routes from multiple origins to multiple destinations, representing geographical areas (in Middle Layer Super Output Area (MSOA) or Lower Layer Super Output Area (LSOA) level) and services. The car, bicycle and foot travel information is provided from OpenStreetMap that is built by a community of mappers who contribute and maintain data about roads, trails, cafés, railway stations, and much more, all over the world. The UK nationwide bus schedules and related data is provided in TransXChange format from the Department for Transport. The train data is provided in Common Interface Format (CIF) format from Network Rail, filtered to include only passenger train services.</t>
+  </si>
+  <si>
+    <t>Where:</t>
+  </si>
+  <si>
+    <t>Extracts key terminology (n-grams) from any large collection of documents (&gt;1000) and forecasts emergence.</t>
+  </si>
+  <si>
+    <t>In order to configure the app open the config.toml file with a text editor of your choice. The following settings will define how the app functions:</t>
+  </si>
+  <si>
+    <t>On Wednesday 27 November we ran our first hour-long drop-in Code Surgery session in the coffee shop. We are planning to run further Code Surgery sessions in the future, further details will be made available near the time.</t>
+  </si>
+  <si>
+    <t>Would you like to collaborate or learn more ? Please email hillary.juma@ons.gov.uk for more information.</t>
+  </si>
+  <si>
+    <t>Saleint phrases detection using:</t>
+  </si>
+  <si>
+    <t>further your coding skills: use conditional if-statements to add information to the report depending on the current parameters. ifelse statements are also used;</t>
+  </si>
+  <si>
     <t>and how the Tidyverse, a collection of R packages specifically developed for contemporary data science, assists at each stage of the flow in a  standardised, coherent and reproducible way.</t>
   </si>
   <si>
+    <t>Create your new repository with a suitable projectName.</t>
+  </si>
+  <si>
     <t>The .Rmd files are provided so that you can experiment with the code as you go through the material. I have deposited here the .html files resulting from "knitting" the .Rmd files. Please, note that the "NLPWR_part3.Rmd" takes quite a while to knit for the first time.</t>
   </si>
   <si>
-    <t>further your coding skills: use conditional if-statements to add information to the report depending on the current parameters. ifelse statements are also used;</t>
-  </si>
-  <si>
     <t>Model Basics</t>
   </si>
   <si>
-    <t>Create your new repository with a suitable projectName.</t>
-  </si>
-  <si>
     <t>Git, together with GitHub, is one such VCS tool.</t>
   </si>
   <si>
+    <t>Simulated samples of individuals initialised with the standard european population are created using randomly selected measures for weight, height, age and sex from individuals in the testing sample. An output data set from 1000 simulated samples containing avergae calorie intake and percentage of undajusted and adjusted energy intake estimates within biologically plausible ranges for each sample. This dataset can be used to explore the robustness of the average calorie intake estimated using adjusted data derived from different sample populations.</t>
+  </si>
+  <si>
+    <t>You can use gcloud on your machine to deploy to cloud from your terminal of choice. Install gcloud sdk from here.</t>
+  </si>
+  <si>
+    <t>The insights are drawn from changes in visits and lengths of stay for different types of locations indexed against median levels, for the same day of the week, over the period 3rd January - 6th February 2020 (for the original data). Google uses aggregated, anonymized sets of data from users who have turned on the Location History setting (off by default). Google caution that the location accuracy and the understanding of categorized places will vary between regions and so advice against using it to compare changes between countries, or between regions with different characteristics (e.g. rural versus urban areas) - please see Google's documentation for more details.</t>
+  </si>
+  <si>
+    <t>The different nature of the data formats and the difficulty of combining them under a common tool, implied that we had to convert them in a more usable format. A common and very popular type of transport data is the General Transit Feed Specification (GTFS) as used by Google to draw directions and calculate travel times in their maps. However, as far we know, in the UK only Manchester and London have open-source GTFS feeds. Therefore, our first task was to convert these formats to the more usable GTFS format.</t>
+  </si>
+  <si>
+    <t>Note that it is good practice to store results in data://.algo/:user/:algo/tempsince these files will be automatically deleted by the algorithmia platform once per day.</t>
+  </si>
+  <si>
+    <t>The expects a certain structure from the input csv file. The file must have a 'current_label' column and can have several 'tier_n' columns. The structure of the file with which this app was developed was as follows:</t>
+  </si>
+  <si>
+    <t>This will be an opportunity to discuss any coding problems you are having, or perhaps find better ways of solving issues. Open to coders of any level or those who have not started yet and want some guidance on how to begin.</t>
+  </si>
+  <si>
+    <t>Please note events are restricted to ONS employees, unless individual approval has been given. Please note that currently events are going to be held in ONS London Offices in Pimlico.</t>
+  </si>
+  <si>
+    <t>Word collocation</t>
+  </si>
+  <si>
+    <t>build on your ggplot2 skills by learning how to produce maps with statistical information in them;</t>
+  </si>
+  <si>
     <t>The focus of the course is on the reflection, collection and preparation stages of the data science process. We learn about importing data presented in almost any format into R, a standard concept of tidy data and how to transform messy data sets into tidy ones, and how to explore a data set, using techniques such as visualisation and other tools, so that it is ready for analysis. The approach is hands-on using case-studies.</t>
   </si>
   <si>
-    <t>build on your ggplot2 skills by learning how to produce maps with statistical information in them;</t>
+    <t>Clone this template to the new repository using</t>
   </si>
   <si>
     <t>Model Construction</t>
   </si>
   <si>
-    <t>Clone this template to the new repository using</t>
-  </si>
-  <si>
     <t>Intended audience</t>
   </si>
   <si>
+    <t>Run the following command to authenticate against gcp:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>Once all the data is converted, we can use OpenTripPlanner, an open-source network builder, to built the multimodal transport network and run queries using the tool.</t>
+  </si>
+  <si>
+    <t>After running, check the dst directory for resulint .bmp images.</t>
+  </si>
+  <si>
+    <t>A text processing pipeline for turning unstructured text data into hierarchical datasets.</t>
+  </si>
+  <si>
+    <t>NOTE: when the data is presented for the user, on first glance it may seem like it only displays 150 rows per cluster. The rest of the data will still be displayed upon scrolling through the table, however the size of the table will not accommodate these extra entries.</t>
+  </si>
+  <si>
+    <t>Note that resources are publicly accessible. When adding new content work on a branch and submit a pull request.</t>
+  </si>
+  <si>
+    <t>Term-frequency inverse document frequency</t>
+  </si>
+  <si>
+    <t>get started with writing functions in R: you will be able to write a simple function;</t>
+  </si>
+  <si>
     <t>At the end of this course participants will be able to:</t>
   </si>
   <si>
-    <t>get started with writing functions in R: you will be able to write a simple function;</t>
+    <t>which will then create a new directory with your project's name and place all of the files into it. However, the remote address will remain as the skeletor repo until you do</t>
   </si>
   <si>
     <t>Assessing Model Fit</t>
   </si>
   <si>
-    <t>which will then create a new directory with your project's name and place all of the files into it. However, the remote address will remain as the skeletor repo until you do</t>
-  </si>
-  <si>
     <t>The target audience for this training is someone who analyses data by writing code (e.g. in R or Python), at intermediate to advanced level, but is new to version control systems.</t>
   </si>
   <si>
+    <t>gcloud auth login</t>
+  </si>
+  <si>
+    <t>Figure 1: UK trends chart from Google Community Mobility Reports published on the 03/04/2020.</t>
+  </si>
+  <si>
+    <t>The .bmp images describe the predicted segments for each pixel in the scene. Each pixel value will range between 0 and 255 and map to a specific label. The current implementation makes use of a network pre-trained on the Cityscapes dataset, and as such, the labels are as follows:</t>
+  </si>
+  <si>
+    <t>This feature checks the custom class input provided by user and if it finds any clusters in the dataset which have that same exact current_label as the newly provided class it will also accept these. This is particularly useful in labelling datasets with simple names.</t>
+  </si>
+  <si>
+    <t>Folders should adhere to the following conventions:</t>
+  </si>
+  <si>
+    <t>Context around the key phrases (particularly important where similar key phrases appeared in different stratas)</t>
+  </si>
+  <si>
+    <t>learn how to present a table.</t>
+  </si>
+  <si>
     <t>Understand the scientific approach to the data analysis workflow and why and how R contributes to the process.</t>
   </si>
   <si>
-    <t>learn how to present a table.</t>
+    <t>The generic GitHub labels are limited in their use, this repository has additional labels:</t>
   </si>
   <si>
     <t>Chapter 3: Generalized Linear Models</t>
   </si>
   <si>
-    <t>The generic GitHub labels are limited in their use, this repository has additional labels:</t>
-  </si>
-  <si>
     <t>Pre-requisites</t>
   </si>
   <si>
+    <t>This will open a browser and ask user to login with GCP credentials.</t>
+  </si>
+  <si>
+    <t>Data and methodology cannot be QA’d directly by the Campus and is provided on an ‘as-is’ basis.</t>
+  </si>
+  <si>
+    <t>To create a GTFS file, build and host an OTP server, please refer to graphite.</t>
+  </si>
+  <si>
+    <t>Please see the src/client/visualise.py code for a complete post-processing demo.</t>
+  </si>
+  <si>
+    <t>A repository for the R tool propeR, which analyses travel time and cost using an OTP graph. Please see the sister repository graphite.</t>
+  </si>
+  <si>
+    <t>Example:</t>
+  </si>
+  <si>
+    <t>The aim of the Coffee &amp; Coding meetups is to nurture, enable and encourage a vibrant, supportive and inclusive coding community at ONS. Coffee &amp; Coding provides a regular opportunity for people within ONS who are interested in coding to share skills and knowledge, provide advice and guidance to each other and generally network and get to know each other. The format is generally 40 minutes for a presentation and questions to the presenter/s followed by an informal Code Surgery. The presentations usually take the form of a demonstration of a tool or technique and/or a show and tell of work done within the department using these methods. From time to time we will invite external speakers. The Code Surgery provides the opportunity for people to pose any coding related queries/ruminations/ideas to the gathered coding community.</t>
+  </si>
+  <si>
+    <t>Supports Welsh Assembly colleagues in analysis and decision making. In addition to the Committee’s own analysis of the consultation responses, the work undertaken by the Data Science Campus formed a part of independent analysis of the responses, to identify the main issues raised by respondents.The work was presented to the Children, Young People and Education Committee members and formed part of the Stage 1 report published by the Committee on 2nd August 2019</t>
+  </si>
+  <si>
+    <t>The following are pre-requisites:</t>
+  </si>
+  <si>
     <t>Be able to import data into R in different text formats, flat files, excel, SAS, STATA and SPSS files as well as data from the web.</t>
   </si>
   <si>
-    <t>The following are pre-requisites:</t>
+    <t>The first four define the priority of the task. The last five are to highlight any blockers.</t>
   </si>
   <si>
     <t>By the end of Chapter 3, learners should know</t>
   </si>
   <si>
-    <t>The first four define the priority of the task. The last five are to highlight any blockers.</t>
-  </si>
-  <si>
     <t>Have a good grasp of files and directories and be generally knowledgeable about where things live on your computer.</t>
   </si>
   <si>
+    <t>Run the following command and select the project where the function needs to be deployed to.</t>
+  </si>
+  <si>
+    <t>See src/client/exmaple.py for an end-to-end Python based demo.</t>
+  </si>
+  <si>
+    <t>If a user provided new class name cars any entries within the data which have the current_label as cars will automatically be assigned that in the new_label column assuming that is an acceptable label.</t>
+  </si>
+  <si>
+    <t>Since there is often not enough time at the end of sessions for the Code Surgery we are considering running hour-long drop-in Code Surgeries, in the coffee shop, in addition to the presentation based monthly Coffee &amp; Coding sessions. We had our first drop-in Code Surgery on Wednesday 27 November and are planning to have the second session in January.</t>
+  </si>
+  <si>
+    <t>http://www.assembly.wales/laid%20documents/cr-ld12708/cr-ld12708-e.pdf</t>
+  </si>
+  <si>
+    <t>Know how to import data in Excel format into R (package readxl).</t>
+  </si>
+  <si>
     <t>Know the concept of tidy data, identify messy features in a data set and tidy it ready for analysis.</t>
   </si>
   <si>
-    <t>Know how to import data in Excel format into R (package readxl).</t>
+    <t>To setup these labels do the following:</t>
   </si>
   <si>
     <t>What is probability?</t>
   </si>
   <si>
-    <t>To setup these labels do the following:</t>
-  </si>
-  <si>
     <t>We will work on the command line or shell, so you should know how to open up a shell. Desirable is also that you know how to navigate to a certain directory and list the files there.</t>
   </si>
   <si>
+    <t>gcloud config set project &lt;project id&gt;</t>
+  </si>
+  <si>
+    <t>The Data Science Campus has created a python tool (https://github.com/datasciencecampus/mobility-report-data-extractor) for extracting the data points from the graphs for Google Community Mobility Report PDFs. To use this tool, the PDF documents need to be converted to Scalable Vector Graphic (SVG) format. The Campus has converted all PDF documents to SVG documents for this tool. These SVG files are used in mobius to obtain a Comma Separated Value (CSV) file for each graph in the original report.</t>
+  </si>
+  <si>
+    <t>To analyse an OTP graph, you can use propeR.</t>
+  </si>
+  <si>
+    <t>Else, the webservice can be invoked as follows:</t>
+  </si>
+  <si>
+    <t>Toolkit for extracting relevant lines from receipts or similar Image data.</t>
+  </si>
+  <si>
+    <t>This behaviour might not always be wanted.</t>
+  </si>
+  <si>
+    <t>Please note events are restricted to ONS employees, unless individual approval has been given. This repo contains details of Coffee and Coding events in Newport.</t>
+  </si>
+  <si>
+    <t>http://www.senedd.assembly.wales/documents/s92871/Independent%20data%20science%20analysis%20of%20the%20consultation%20responses%20-%20Data%20Science%20Campus,%20Office%20for%20Na.pdf</t>
+  </si>
+  <si>
+    <t>Understand the concept of tidy data and be confident with the use of the packages tidyr and dplyr for data wrangling.</t>
+  </si>
+  <si>
     <t>Use simple exploratory analysis, including visualisation, to understand the data structure and some information it contains and also to detect, be aware of, and possibly correct, data anomalies.</t>
   </si>
   <si>
-    <t>Understand the concept of tidy data and be confident with the use of the packages tidyr and dplyr for data wrangling.</t>
+    <t>Then go to 'Add labels from package' and then type:</t>
   </si>
   <si>
     <t>What is a random variable?</t>
   </si>
   <si>
-    <t>Then go to 'Add labels from package' and then type:</t>
+    <t>Deploy function using:</t>
+  </si>
+  <si>
+    <t>This repository contains the CSV files for all G20 countries for national and regional graphs.</t>
+  </si>
+  <si>
+    <t>This project is licensed under the MIT License - see the LICENSE.md file for details</t>
+  </si>
+  <si>
+    <t>Set credentials</t>
+  </si>
+  <si>
+    <t>The app will respect the cluster size threshold provided in the config.toml file. It will thus select cluster that are larger or equal that size. The selected cluster labels will be presented to the user to categorise and relabel. The non-selected cluster based on this threshold will get a new label assigned as 'SKIPPED'</t>
+  </si>
+  <si>
+    <t>If you would like to attend the London ONS Coffee and Coding please check their Github repo for more information: https://github.com/datasciencecampus/coffee-and-coding-LDN.</t>
+  </si>
+  <si>
+    <t>Know how to use the package ggplot2 for data visualisation.</t>
   </si>
   <si>
     <t>Be able to create a basic report  of  data analysis using a R notebook.</t>
   </si>
   <si>
-    <t>Know how to use the package ggplot2 for data visualisation.</t>
+    <t>The 'Project' labels encompass the majority of Discovery tasks. However, add more labels if you need (either manually or to the JSON file).</t>
   </si>
   <si>
     <t>What a probability distribution is and how it differs for continuous vs. discrete random variables?</t>
   </si>
   <si>
-    <t>The 'Project' labels encompass the majority of Discovery tasks. However, add more labels if you need (either manually or to the JSON file).</t>
+    <t>gcloud functions deploy NAME --runtime python37 --trigger-http</t>
+  </si>
+  <si>
+    <t>The set of boundaries provided in the geopackage is draft, and has been created by ONS in order to promote information sharing and analysis of the effect of COVID19.</t>
+  </si>
+  <si>
+    <t>Using curl:</t>
+  </si>
+  <si>
+    <t>A python tool for extracting data from the Google Mobility Reports published to show how mobility has changed during the COVID-19 pandemic.</t>
+  </si>
+  <si>
+    <t>Options 1-4 of the relabelling procedures presented further will be applied to (a) the full dataset if none of the checkboxes are ticked or (b) to the rows that are selected (if any are selected). Meaning that the user can pick which rows get properly classified. Option 5 will always be applied to the whole cluster.</t>
+  </si>
+  <si>
+    <t>Be familiar and at ease with literate programming in RStudio.</t>
   </si>
   <si>
     <t>Work with the Tidyverse packages readr, tidyr, dplyr, stringr, ggplot2, forcats, lubridate, etc.</t>
   </si>
   <si>
-    <t>Be familiar and at ease with literate programming in RStudio.</t>
+    <t>Make a clean, fresh repository! This will make sure no git history is opened to the public. Copy your code into this repository and update the CONTRIBUTING.md file. Your README.md might also need more information too. And check you are using the relevant LICENSE.md file too.</t>
   </si>
   <si>
     <t>Be familiar with several common probability distributions used to model variation in the response variable</t>
   </si>
   <si>
-    <t>Make a clean, fresh repository! This will make sure no git history is opened to the public. Copy your code into this repository and update the CONTRIBUTING.md file. Your README.md might also need more information too. And check you are using the relevant LICENSE.md file too.</t>
+    <t>NOTE: This function will be publically available. Extra settings need to be applied to secure the function (using service account permissions etc).</t>
+  </si>
+  <si>
+    <t>The boundaries have been tailored specifically to present ‘Community Mobility’ data (first published by Google on 3 April 2020) recast to administrative boundaries.</t>
+  </si>
+  <si>
+    <t>Using the Algorithmia algo client:</t>
+  </si>
+  <si>
+    <t>There are several relabelling options.</t>
   </si>
   <si>
     <t>All pre-requisites are taught at the required level in "Data Science with R" https://github.com/datasciencecampus/DSWR</t>
@@ -476,28 +1130,61 @@
     <t>How to implement a generalized linear model in python.</t>
   </si>
   <si>
+    <t>Ensure that NAME is the name of the function that is to be called when the function is run.</t>
+  </si>
+  <si>
+    <t>The data published by Google covers all of the UK based on the normal Government Statistical  Service (GSS) assignment to 2019 administrative areas - with 3 exceptions. The Unitary Authorities of Bournemouth, Christchurch and Poole; and Telford and Wrekin are missing. In building the boundaries provided here we have assumed that Google have included data for these missing areas within Dorset and Shropshire. Although they do not reflect the current administrative geography we have made use of Ceremonial County versions of Dorset and Shropshire to ensure full geographic coverage of the UK. These boundaries do not reflect current administrative boundaries so care should be taken in how they are used and they should only be used to understand the results published by Google. Further versions of these boundaries may be made available if we are able confirm more details but they are provided here in the hope that they will be helpful to others.</t>
+  </si>
+  <si>
+    <t>More research focused repos. Often these repos will be the basis for tools in the above section.</t>
+  </si>
+  <si>
+    <t>Selecting any of these options will advance the process to the next cluster. However the arrow keys at the top of the page will allow to go back and forth between clusters. Thus if a mistake is made one can go back and edit a cluster again.</t>
+  </si>
+  <si>
+    <t>This course is of intermediate level and it is intended for practitioners working in the UK government who have an interest in applying the taught material to their day-to-day work.</t>
+  </si>
+  <si>
     <t>Data analysis practitioners working in Government who use other systems for their work with an interest in migrating to R. If you have never used R before or have very limited experience, please follow the recommendations below in pre-requisites.</t>
   </si>
   <si>
-    <t>This course is of intermediate level and it is intended for practitioners working in the UK government who have an interest in applying the taught material to their day-to-day work.</t>
-  </si>
-  <si>
     <t>Chapter 4: Bayesian Analysis By the end of Chapter 4, learners should know</t>
   </si>
   <si>
+    <t>Navigate to cloud functions in GCP to view your newly deployed function: https://console.cloud.google.com/functions/</t>
+  </si>
+  <si>
+    <t>The 2018 mid-year population estimates for the UK have been linked to the custom lookup created by ONS. A Standard Area Measurement based on those produced by ONS Geography has also been included for each area (calculated in hectares). This allows measures such as population density to be calculated. </t>
+  </si>
+  <si>
+    <t>Detecting collective human behaviour in internet bandwidth consumption data</t>
+  </si>
+  <si>
+    <t>By using the tickboxes next to the data only the data that is selected will be processed. However if there is a case of a cluster similar to:</t>
+  </si>
+  <si>
     <t>The self-learning materials (notes) is all in Stats4DS.html. The slides for this material are in "Stats4DS_Slides.html (Chapters 1, 2, 3), and Intro_Bayes_Slides.html (Chapter 4)".</t>
   </si>
   <si>
+    <t>If you select entries with fish and classify them into aquatic animals the app will push you into the next cluster and assign SKIPPED to all other entries that are not fish. However if a user wants to also classify the meat as well they can use the arrows to go back and select the meat entries and assign a new label. Only those entries will be overwritten. The already existing fish labels will not be overwritten.</t>
+  </si>
+  <si>
     <t>Participants must be familiar with the basic R syntax, object types and  be able to use and be familiar with RStudio. Please, print the base R cheat sheet in https://www.rstudio.com/wp-content/uploads/2016/05/base-r.pdf. You should be fairly comfortable with the functions in this cheatsheet except perhaps what is listed in the third column of the sheets.</t>
   </si>
   <si>
     <t>The self-learning material makes reference to different practicals which are independent notebooks in the Practicals folder. The order of the practicals is as follows:</t>
   </si>
   <si>
+    <t>Repository for the Data Science Campus Access to Services project looking at accessibility of service such as healthcare based on travel times.</t>
+  </si>
+  <si>
     <t>RStudio has some free online learning resources and links that give an introduction to R and RStudio.</t>
   </si>
   <si>
     <t>Each practical has a python notebook and instructions are self-contained.</t>
+  </si>
+  <si>
+    <t>See tools: propeR &amp; graphite</t>
   </si>
   <si>
     <t>https://education.rstudio.com/learn/beginner/</t>
@@ -639,79 +1326,79 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>261</v>
       </c>
       <c r="L2" t="s">
-        <v>109</v>
+        <v>277</v>
       </c>
       <c r="M2" t="s">
+        <v>290</v>
+      </c>
+      <c r="N2" t="s">
         <v>115</v>
       </c>
-      <c r="N2" t="s">
-        <v>120</v>
-      </c>
       <c r="O2" t="s">
-        <v>125</v>
+        <v>314</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="Q2" t="s">
-        <v>135</v>
+        <v>337</v>
       </c>
       <c r="R2" t="s">
-        <v>140</v>
-      </c>
-      <c r="S2" t="s">
-        <v>144</v>
-      </c>
-      <c r="T2" t="s">
-        <v>148</v>
-      </c>
-      <c r="U2" t="s">
-        <v>119</v>
-      </c>
-      <c r="V2" t="s">
-        <v>154</v>
-      </c>
-      <c r="W2" t="s">
-        <v>129</v>
-      </c>
-      <c r="X2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>162</v>
+        <v>349</v>
+      </c>
+      <c r="S2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3">
@@ -719,61 +1406,61 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T3" t="e">
-        <v>#N/A</v>
+        <v>115</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K3" t="s">
+        <v>262</v>
+      </c>
+      <c r="L3" t="s">
+        <v>278</v>
+      </c>
+      <c r="M3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N3" t="s">
+        <v>303</v>
+      </c>
+      <c r="O3" t="s">
+        <v>315</v>
+      </c>
+      <c r="P3" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>338</v>
+      </c>
+      <c r="R3" t="s">
+        <v>350</v>
+      </c>
+      <c r="S3" t="s">
+        <v>359</v>
+      </c>
+      <c r="T3" t="s">
+        <v>368</v>
       </c>
       <c r="U3" t="e">
         <v>#N/A</v>
@@ -799,37 +1486,37 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L4" t="s">
-        <v>110</v>
+        <v>247</v>
+      </c>
+      <c r="K4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M4" t="e">
         <v>#N/A</v>
@@ -879,67 +1566,67 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" t="s">
-        <v>105</v>
-      </c>
-      <c r="L5" t="s">
-        <v>111</v>
-      </c>
-      <c r="M5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O5" t="s">
-        <v>126</v>
-      </c>
-      <c r="P5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>136</v>
-      </c>
-      <c r="R5" t="s">
-        <v>141</v>
-      </c>
-      <c r="S5" t="s">
-        <v>145</v>
-      </c>
-      <c r="T5" t="s">
-        <v>149</v>
-      </c>
-      <c r="U5" t="s">
-        <v>152</v>
-      </c>
-      <c r="V5" t="s">
-        <v>155</v>
+        <v>211</v>
+      </c>
+      <c r="I5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="W5" t="e">
         <v>#N/A</v>
@@ -959,79 +1646,79 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z6" t="e">
-        <v>#N/A</v>
+        <v>142</v>
+      </c>
+      <c r="F6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" t="s">
+        <v>212</v>
+      </c>
+      <c r="I6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J6" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L6" t="s">
+        <v>212</v>
+      </c>
+      <c r="M6" t="s">
+        <v>292</v>
+      </c>
+      <c r="N6" t="s">
+        <v>212</v>
+      </c>
+      <c r="O6" t="s">
+        <v>316</v>
+      </c>
+      <c r="P6" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>339</v>
+      </c>
+      <c r="R6" t="s">
+        <v>212</v>
+      </c>
+      <c r="S6" t="s">
+        <v>360</v>
+      </c>
+      <c r="T6" t="s">
+        <v>212</v>
+      </c>
+      <c r="U6" t="s">
+        <v>374</v>
+      </c>
+      <c r="V6" t="s">
+        <v>381</v>
+      </c>
+      <c r="W6" t="s">
+        <v>212</v>
+      </c>
+      <c r="X6" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="7">
@@ -1039,79 +1726,79 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>279</v>
       </c>
       <c r="M7" t="s">
-        <v>117</v>
+        <v>293</v>
       </c>
       <c r="N7" t="s">
-        <v>122</v>
+        <v>304</v>
       </c>
       <c r="O7" t="s">
-        <v>127</v>
+        <v>317</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>327</v>
       </c>
       <c r="Q7" t="s">
-        <v>137</v>
+        <v>340</v>
       </c>
       <c r="R7" t="s">
-        <v>142</v>
+        <v>351</v>
       </c>
       <c r="S7" t="s">
-        <v>146</v>
+        <v>361</v>
       </c>
       <c r="T7" t="s">
-        <v>150</v>
+        <v>369</v>
       </c>
       <c r="U7" t="s">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="V7" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="W7" t="s">
-        <v>157</v>
-      </c>
-      <c r="X7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>163</v>
+        <v>384</v>
+      </c>
+      <c r="X7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z7" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8">
@@ -1119,19 +1806,19 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#N/A</v>
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" t="s">
+        <v>168</v>
       </c>
       <c r="G8" t="e">
         <v>#N/A</v>
@@ -1199,55 +1886,55 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R9" t="e">
-        <v>#N/A</v>
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" t="s">
+        <v>232</v>
+      </c>
+      <c r="J9" t="s">
+        <v>249</v>
+      </c>
+      <c r="K9" t="s">
+        <v>265</v>
+      </c>
+      <c r="L9" t="s">
+        <v>280</v>
+      </c>
+      <c r="M9" t="s">
+        <v>294</v>
+      </c>
+      <c r="N9" t="s">
+        <v>305</v>
+      </c>
+      <c r="O9" t="s">
+        <v>318</v>
+      </c>
+      <c r="P9" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>341</v>
+      </c>
+      <c r="R9" t="s">
+        <v>352</v>
       </c>
       <c r="S9" t="e">
         <v>#N/A</v>
@@ -1279,61 +1966,61 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>266</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="M10" t="s">
-        <v>118</v>
+        <v>294</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" t="s">
-        <v>128</v>
-      </c>
-      <c r="P10" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>138</v>
-      </c>
-      <c r="R10" t="s">
-        <v>143</v>
-      </c>
-      <c r="S10" t="s">
-        <v>147</v>
-      </c>
-      <c r="T10" t="s">
-        <v>151</v>
+        <v>305</v>
+      </c>
+      <c r="O10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="U10" t="e">
         <v>#N/A</v>
@@ -1359,52 +2046,52 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q11" t="e">
-        <v>#N/A</v>
+        <v>234</v>
+      </c>
+      <c r="J11" t="s">
+        <v>251</v>
+      </c>
+      <c r="K11" t="s">
+        <v>267</v>
+      </c>
+      <c r="L11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M11" t="s">
+        <v>295</v>
+      </c>
+      <c r="N11" t="s">
+        <v>306</v>
+      </c>
+      <c r="O11" t="s">
+        <v>319</v>
+      </c>
+      <c r="P11" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>342</v>
       </c>
       <c r="R11" t="e">
         <v>#N/A</v>
@@ -1439,78 +2126,1678 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z12" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z13" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" t="s">
+        <v>217</v>
+      </c>
+      <c r="I14" t="s">
+        <v>235</v>
+      </c>
+      <c r="J14" t="s">
+        <v>252</v>
+      </c>
+      <c r="K14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L14" t="s">
+        <v>283</v>
+      </c>
+      <c r="M14" t="s">
+        <v>296</v>
+      </c>
+      <c r="N14" t="s">
+        <v>307</v>
+      </c>
+      <c r="O14" t="s">
+        <v>320</v>
+      </c>
+      <c r="P14" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>343</v>
+      </c>
+      <c r="R14" t="s">
+        <v>353</v>
+      </c>
+      <c r="S14" t="s">
+        <v>362</v>
+      </c>
+      <c r="T14" t="s">
+        <v>370</v>
+      </c>
+      <c r="U14" t="s">
+        <v>376</v>
+      </c>
+      <c r="V14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z14" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" t="s">
+        <v>218</v>
+      </c>
+      <c r="I15" t="s">
+        <v>236</v>
+      </c>
+      <c r="J15" t="s">
+        <v>253</v>
+      </c>
+      <c r="K15" t="s">
+        <v>269</v>
+      </c>
+      <c r="L15" t="s">
+        <v>284</v>
+      </c>
+      <c r="M15" t="s">
+        <v>297</v>
+      </c>
+      <c r="N15" t="s">
+        <v>308</v>
+      </c>
+      <c r="O15" t="s">
+        <v>321</v>
+      </c>
+      <c r="P15" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>344</v>
+      </c>
+      <c r="R15" t="s">
+        <v>354</v>
+      </c>
+      <c r="S15" t="s">
+        <v>363</v>
+      </c>
+      <c r="T15" t="s">
+        <v>287</v>
+      </c>
+      <c r="U15" t="s">
+        <v>377</v>
+      </c>
+      <c r="V15" t="s">
+        <v>311</v>
+      </c>
+      <c r="W15" t="s">
+        <v>385</v>
+      </c>
+      <c r="X15" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z18" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" t="s">
+        <v>219</v>
+      </c>
+      <c r="I20" t="s">
+        <v>237</v>
+      </c>
+      <c r="J20" t="s">
+        <v>254</v>
+      </c>
+      <c r="K20" t="s">
+        <v>270</v>
+      </c>
+      <c r="L20" t="s">
+        <v>285</v>
+      </c>
+      <c r="M20" t="s">
+        <v>298</v>
+      </c>
+      <c r="N20" t="s">
+        <v>309</v>
+      </c>
+      <c r="O20" t="s">
+        <v>322</v>
+      </c>
+      <c r="P20" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>345</v>
+      </c>
+      <c r="R20" t="s">
+        <v>355</v>
+      </c>
+      <c r="S20" t="s">
+        <v>364</v>
+      </c>
+      <c r="T20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" t="s">
+        <v>220</v>
+      </c>
+      <c r="I21" t="s">
+        <v>238</v>
+      </c>
+      <c r="J21" t="s">
+        <v>255</v>
+      </c>
+      <c r="K21" t="s">
+        <v>271</v>
+      </c>
+      <c r="L21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z21" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>200</v>
+      </c>
+      <c r="H22" t="s">
+        <v>221</v>
+      </c>
+      <c r="I22" t="s">
+        <v>239</v>
+      </c>
+      <c r="J22" t="s">
+        <v>256</v>
+      </c>
+      <c r="K22" t="s">
+        <v>272</v>
+      </c>
+      <c r="L22" t="s">
+        <v>286</v>
+      </c>
+      <c r="M22" t="s">
+        <v>299</v>
+      </c>
+      <c r="N22" t="s">
+        <v>310</v>
+      </c>
+      <c r="O22" t="s">
+        <v>323</v>
+      </c>
+      <c r="P22" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>346</v>
+      </c>
+      <c r="R22" t="s">
+        <v>356</v>
+      </c>
+      <c r="S22" t="s">
+        <v>365</v>
+      </c>
+      <c r="T22" t="s">
+        <v>371</v>
+      </c>
+      <c r="U22" t="s">
+        <v>378</v>
+      </c>
+      <c r="V22" t="s">
+        <v>383</v>
+      </c>
+      <c r="W22" t="s">
+        <v>386</v>
+      </c>
+      <c r="X22" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z22" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" t="s">
+        <v>222</v>
+      </c>
+      <c r="I23" t="s">
+        <v>240</v>
+      </c>
+      <c r="J23" t="s">
+        <v>257</v>
+      </c>
+      <c r="K23" t="s">
+        <v>273</v>
+      </c>
+      <c r="L23" t="s">
+        <v>287</v>
+      </c>
+      <c r="M23" t="s">
+        <v>300</v>
+      </c>
+      <c r="N23" t="s">
+        <v>311</v>
+      </c>
+      <c r="O23" t="s">
+        <v>324</v>
+      </c>
+      <c r="P23" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z23" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" t="s">
+        <v>223</v>
+      </c>
+      <c r="I24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z24" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" t="s">
+        <v>203</v>
+      </c>
+      <c r="H25" t="s">
+        <v>224</v>
+      </c>
+      <c r="I25" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" t="s">
+        <v>258</v>
+      </c>
+      <c r="K25" t="s">
+        <v>274</v>
+      </c>
+      <c r="L25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z25" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" t="s">
+        <v>204</v>
+      </c>
+      <c r="H26" t="s">
+        <v>225</v>
+      </c>
+      <c r="I26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" t="s">
+        <v>205</v>
+      </c>
+      <c r="H27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" t="s">
-        <v>108</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29" t="s">
+        <v>226</v>
+      </c>
+      <c r="I29" t="s">
+        <v>243</v>
+      </c>
+      <c r="J29" t="s">
+        <v>259</v>
+      </c>
+      <c r="K29" t="s">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s">
+        <v>288</v>
+      </c>
+      <c r="M29" t="s">
+        <v>301</v>
+      </c>
+      <c r="N29" t="s">
+        <v>312</v>
+      </c>
+      <c r="O29" t="s">
+        <v>325</v>
+      </c>
+      <c r="P29" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>347</v>
+      </c>
+      <c r="R29" t="s">
+        <v>357</v>
+      </c>
+      <c r="S29" t="s">
+        <v>366</v>
+      </c>
+      <c r="T29" t="s">
+        <v>372</v>
+      </c>
+      <c r="U29" t="s">
+        <v>379</v>
+      </c>
+      <c r="V29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z29" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" t="s">
+        <v>207</v>
+      </c>
+      <c r="H30" t="s">
+        <v>227</v>
+      </c>
+      <c r="I30" t="s">
+        <v>244</v>
+      </c>
+      <c r="J30" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" t="s">
+        <v>276</v>
+      </c>
+      <c r="L30" t="s">
+        <v>289</v>
+      </c>
+      <c r="M30" t="s">
+        <v>302</v>
+      </c>
+      <c r="N30" t="s">
+        <v>313</v>
+      </c>
+      <c r="O30" t="s">
+        <v>289</v>
+      </c>
+      <c r="P30" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>348</v>
+      </c>
+      <c r="R30" t="s">
+        <v>358</v>
+      </c>
+      <c r="S30" t="s">
+        <v>367</v>
+      </c>
+      <c r="T30" t="s">
+        <v>373</v>
+      </c>
+      <c r="U30" t="s">
+        <v>380</v>
+      </c>
+      <c r="V30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z30" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
         <v>114</v>
       </c>
-      <c r="M12" t="s">
-        <v>119</v>
-      </c>
-      <c r="N12" t="s">
-        <v>124</v>
-      </c>
-      <c r="O12" t="s">
-        <v>129</v>
-      </c>
-      <c r="P12" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>139</v>
-      </c>
-      <c r="R12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z12" t="e">
+      <c r="D31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z31" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z32" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/output_data/course_catalogue.xlsx
+++ b/output_data/course_catalogue.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,42 +365,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>version_number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>course_duration</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>course_summary</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>course_objective</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>learning_objective_detail</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>course_type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>skill_level</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>site_link</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>lead_developer</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>course_reviewer</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>learning_objective_detail</t>
         </is>
       </c>
     </row>
@@ -410,44 +420,52 @@
           <t>Advanced Natural Language Processing in Python</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6 Hours</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>This course will focus on four key topics in Natural Language Processing: information retrieval, classification, sentiment analysis and topic modelling. Information retrieval covers the building blocks of a search engine - the inverted index and maps out in detail with both illustrations and code how an information retrieval application can be built. Three disparate, classical approaches will be examined to fulfil this objective. Classification will then be outlined, focusing on its supervised machine learning foundations. A real-world classification problem of news classification will be illustrated using a BBC news dataset. Classification will again be enacted to undertake sentiment analysis. Key challanges in the field of sentiment analysis will also be explored.  Topic Modelling as the name suggests is a process to automatically identify topics present in a datset. The course will demostrate from a practical perspective how this can be attained.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Participants should attain specialist knowledge and skills to enable development of more challenging language based applications like sentiment analysis and search engines.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describe the boolean retrieval model; Execute the boolean retrieval model over a dataset; Describe the vector space model; Execute the vector space model over a dataset.; Describe how a language model can be used to enact retrieval over a dataset; Execute a language modelling approach to enact retrieval over a dataset; Describe supervised machine learning; Describe pathway of a typical machine learning project; Follow steps in pathway to enact classification over a dataset; Describe sentiment analysis; Describe challenges in a sentiment analysis task; Execute sentiment analysis using methods delineated to enact sentiment analysis over a dataset; Describe the topic modelling task over a dataset; Execute topic modelling using steps with code shown over a dataset;                                         ;                                         </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>E learning - Not Available; Self learning -  Not Available; Face to face - Available</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Participants must have attended the Introduction to Natural Langauge course</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://github.com/datasciencecampus/DSCA_advNLPpython</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Saliha Minhas</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Pending</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Describe the boolean retrieval model; Execute the boolean retrieval model over a dataset; Describe the vector space model; Execute the vector space model over a dataset.; Describe how a language model can be used to enact retrieval over a dataset; Execute a language modelling approach to enact retrieval over a dataset; Describe supervised machine learning; Describe pathway of a typical machine learning project; Follow steps in pathway to enact classification over a dataset; Describe sentiment analysis; Describe challenges in a sentiment analysis task; Execute sentiment analysis using methods delineated to enact sentiment analysis over a dataset; Describe the topic modelling task over a dataset; Execute topic modelling using steps with code shown over a dataset</t>
         </is>
       </c>
     </row>
@@ -457,44 +475,52 @@
           <t>Automated Report Production with R</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6 Hours</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>R is a powerful tool for data analysis and, when coupled with RStudio, the reproducibility feature of coding is further enhanced. Using RStudio and literate programming it is possible to automate the production of reports, replacing tedious and non-reproducible practices of copying and pasting.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>R users will improve their skills using R markdown to produce automated reports based upon their analyses. Learners will inderstand hw to 'paramaterize' their markdown reports, reducing the need for manual adjustments. Learners will explore the diffreent options for presentation of output to stakeholders.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> further your knowledge of R markdown: You will further understand the YAML header of a R Markdown document and how to specify parameters that the document will depend on; ;  use functional programming: you will learn how to use the function(al)s map() and walk() from the package purrr to apply a function to the entries of a vector or a list. This will be useful when we read the data in and also to generate all the reports, one per continent, at once; ;  further your coding skills: use conditional if-statements to add information to the report depending on the current parameters. ifelse statements are also used; ;  build on your ggplot2 skills by learning how to produce maps with statistical information in them; ;  get started with writing functions in R: you will be able to write a simple function; ;  learn how to present a table. ;                                         ;                                         </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>E learning - Not Available; Self learning - Not Available; Face to face - Available</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Intermediate R user.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://github.com/datasciencecampus/DSCA_ARP</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Sonia Mazzi</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Pending</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> further your knowledge of R markdown: You will further understand the YAML header of a R Markdown document and how to specify parameters that the document will depend on; ;  use functional programming: you will learn how to use the function(al)s map() and walk() from the package purrr to apply a function to the entries of a vector or a list. This will be useful when we read the data in and also to generate all the reports, one per continent, at once; ;  further your coding skills: use conditional if-statements to add information to the report depending on the current parameters. ifelse statements are also used; ;  build on your ggplot2 skills by learning how to produce maps with statistical information in them; ;  get started with writing functions in R: you will be able to write a simple function; ;  learn how to present a table. </t>
         </is>
       </c>
     </row>
@@ -504,44 +530,52 @@
           <t>Data Science with R</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12 Hours</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>This course gives the essential knowledge to get started with a data science project in R using the Tidyverse package (https://www.tidyverse.org). We will learn to tell stories with data using the scientific data analysis workflow and analytic tools based on the R system.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Learners will be able to use the Tidyverse to automate tasks efficiently. They will learn how to use best practice techniques in their workflow from data ingestion through to communication of results.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Understand the scientific approach to the data analysis workflow and why and how R contributes to the process. ;  Be able to import data into R in different text formats, flat files, excel, SAS, STATA and SPSS files as well as data from the web. ;  Know the concept of tidy data, identify messy features in a data set and tidy it ready for analysis. ;  Use simple exploratory analysis, including visualisation, to understand the data structure and some information it contains and also to detect, be aware of, and possibly correct, data anomalies. ;  Be able to create a basic report  of  data analysis using a R notebook. ;  Work with the Tidyverse packages readr, tidyr, dplyr, stringr, ggplot2, forcats, lubridate, etc. ;                                                           sonjam111               sonjam111                  ;                                                           r-leyshon               r-leyshon                  </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>E learning - Not Available; Self learning - Not Available; Face to face - Available</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Beginner. Familiar with basic R syntax.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://github.com/datasciencecampus/DSCA_DSWR</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Sonia Mazzi</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Pending</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Understand the scientific approach to the data analysis workflow and why and how R contributes to the process. ;  Be able to import data into R in different text formats, flat files, excel, SAS, STATA and SPSS files as well as data from the web. ;  Know the concept of tidy data, identify messy features in a data set and tidy it ready for analysis. ;  Use simple exploratory analysis, including visualisation, to understand the data structure and some information it contains and also to detect, be aware of, and possibly correct, data anomalies. ;  Be able to create a basic report  of  data analysis using a R notebook. ;  Work with the Tidyverse packages readr, tidyr, dplyr, stringr, ggplot2, forcats, lubridate, etc. </t>
         </is>
       </c>
     </row>
@@ -551,44 +585,52 @@
           <t>Introduction to ggplot2 and interactive leaflet mapping</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5 Hours</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>This course introduces students to the grammar of graphics and building a plot using ggplot2. In the second part, students are introduced to building interactive maps using leaflet.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Students will become familiar with how a plot is built using ggplot and leaflet and ways to build and customise their plots using both packages.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>become familiar with how a plot is built using ggplot and leaflet and ways to build and customise their plots using both packages.; There is a pdf copy of the the ggplot2 and leaflet course slides in the folder slides.; The exercises folder included the accompanying exercises for ggplot2. Leaflet exercises are still being prepared.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>E learning - Available; Self learning - Not Available; Face to face - Available</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Intermediate</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://github.com/datasciencecampus/DSCA_ggplot-leaflet-map-training</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Laurie Baker</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Richard Leyshon</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>become familiar with how a plot is built using ggplot and leaflet and ways to build and customise their plots using both packages.; There is a pdf copy of the the ggplot2 and leaflet course slides in the folder slides.; The exercises folder included the accompanying exercises for ggplot2. Leaflet exercises are still being prepared.</t>
         </is>
       </c>
     </row>
@@ -598,44 +640,52 @@
           <t>Introduction to R</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10 Hours</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Designed for statistical analysis and reporting, R is a powerful tool for data analysis. This course focuses on the application of key data skills, providing opportunities to build confidence, independence, and resilience. This 1 day course will introduce you to the building blocks of R including objects, vectors, and data frames and will examine common data types (e.g. character, factor). During the course we will also cover data manipulation using dplyr and data visualisation using ggplot with examples from the gapminder dataset.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>The aim of this course is to equip you with a toolbox to get started with data in R aand Rstudio and to provide a sound foundation from which to continue your learning beyond the classroom.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Familiarise themselves with RStudio and R Notebooks, which is what we’ll use to interact with R. ;  Learn about the simple data structures in R: object, vector, and data frame. ;  Explore R's basic data types = integer, character, numeric, etc. ;  Learn to read data into R. ;  Introduction to data wrangling using the tidyverse set of metapackages. ;  Use the tidyverse verbs to explore the gapminder data set which includes statistics for countries around the world including life expectancy, population, and GDP per capita. ;  Learn to merge datasets using left_join. ;  Create meaningful visualisations of the data using ggplot2. ;  Learn where to go for help. ; Day 1 part 1 &amp; 2; Day 2 part 1 &amp; 2; Day 1: IntroR_exercises.Rmd; Day 2: IntroR_exercises_part2.Rmd; IntroR4IntlDev.html (Self-learning tutorial in html); IntroR4IntlDev.Rmd (R markdown to run exercises); IntroR_part1_slides.pdf (also available in .html); IntroR_part2_slides.pdf (also available in .html); Day 1: IntroR_exercises.Rmd; Day 2: IntroR_exercises_part2.Rmd;                                         ;                                         </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>E learning - Available; Self learning - Available; Face to face - Available</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>This courses is aimed at complete beginners with no prior programming experience.</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://github.com/datasciencecampus/DSCA_Intro-R</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Laurie Baker</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Pending</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Familiarise themselves with RStudio and R Notebooks, which is what we’ll use to interact with R. ;  Learn about the simple data structures in R: object, vector, and data frame. ;  Explore R's basic data types = integer, character, numeric, etc. ;  Learn to read data into R. ;  Introduction to data wrangling using the tidyverse set of metapackages. ;  Use the tidyverse verbs to explore the gapminder data set which includes statistics for countries around the world including life expectancy, population, and GDP per capita. ;  Learn to merge datasets using left_join. ;  Create meaningful visualisations of the data using ggplot2. ;  Learn where to go for help. ; Day 1 part 1 &amp; 2; Day 2 part 1 &amp; 2; Day 1: IntroR_exercises.Rmd; Day 2: IntroR_exercises_part2.Rmd; IntroR4IntlDev.html (Self-learning tutorial in html); IntroR4IntlDev.Rmd (R markdown to run exercises); IntroR_part1_slides.pdf (also available in .html); IntroR_part2_slides.pdf (also available in .html); Day 1: IntroR_exercises.Rmd; Day 2: IntroR_exercises_part2.Rmd</t>
         </is>
       </c>
     </row>
@@ -645,44 +695,52 @@
           <t>Introduction to Natural Language Programming with Python</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6 Hours</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Natural Language Processing is a sub-field of Artificial Intelligence. It is used for processing and analysing large amounts of natural language. Some applications include search engines (Google), text classification (spam filters), identifying sentiments for a product (sentiment analysis), methods for discovering abstract topics in a collection of documents (topic modelling) and machine translation technologies. Concepts covered include cleaning, exploring datasets through methods rooted in Corpus Linguistics, and application of feature engineering techniques to transform textual data into a numerical representation. Key techniques such as word embeddings and language modelling are also introduced as well as illustrations as to how they can be performed over a dataset.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Participants should gain competancy in using core techniques to handle natural language content to undertake analysis to detect patterns and derive insights for development of applications like mentioned in course summary</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describe the main components of language structure; Perform pre-processing (cleaning) operations on text.; Apply methods from Corpus Linguistics to garner greater insights on a corpus.; Produce word-clouds, bar charts and other basic visualisations on variables of interest.; Produce clusters using the k-means algorithm to uncover patterns in a corpus; Transform text to vectors using approaches delineated.; Produce word embeddings on a corpus; Calculate the probability of a sentence using a language modelling approach;                                         ;                                         </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>E learning - Available; Self learning -  Not Available; Face to face - Available</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Competency in using the Python Programming language to perform basic data manipulation is reqiured.</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://github.com/datasciencecampus/DSCA_introNLPpython</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Saliha Minhas</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Kaveh Jahanshahi</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Describe the main components of language structure; Perform pre-processing (cleaning) operations on text.; Apply methods from Corpus Linguistics to garner greater insights on a corpus.; Produce word-clouds, bar charts and other basic visualisations on variables of interest.; Produce clusters using the k-means algorithm to uncover patterns in a corpus; Transform text to vectors using approaches delineated.; Produce word embeddings on a corpus; Calculate the probability of a sentence using a language modelling approach</t>
         </is>
       </c>
     </row>
@@ -692,44 +750,52 @@
           <t>Introduction to Python Programming</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8">
+        <v>1.1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10 Hours</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>This course is delivered through the Jupyter notebook application. It begins with a coverage of fundamental building blocks in Python -  numeric data types, strings, lists, dictionaries, sets - replete with examples. Illustrations are then provided on the use of these data types to compose code with selection and iteration constructs.  To promote modular and readable code the set-up and use of functions with parameters are also covered. Specialised knowledge in data analysis is then developed through a comprehensive overview of the Pandas library. The two main data structures in this library – the series and dataframe and associated methods are explained with clarifying examples on how to select, filter, aggregate and merge data. Keys tasks like handling null values, applying functions, plotting are also highlighted.  Each section has exercises for participants to attempt to consolidate their learning.</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Participants should attain a good understanding of basic data types in Python and associated methods and constructs that can be applied to them. They should also become knowledgeable in how to deal with tabular data through using the specialised data structures found in the Pandas library and how to perform key analysis through methods available in this library.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describe basic data types in Python; Apply methods to basic data types; Enact selection and iteration over basic data types; Construct functions to compose modular code; Describe specialised data structures - the series and dataframe in the Pandas library; Select, filter, aggregate, merge data in the Pandas dataframe; Execute specific operations to handle null values and apply functions.; Plot data in a dataframe column(s).;                                         ;                                         ;                                         </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>E learning - Available; Self learning - Not Available; Face to face - Available</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>No previous experience in coding is required though a  basic digital literacy assumed.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://github.com/datasciencecampus/DSCA_intropython</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Saliha Minhas</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Richard Leyshon, Kaveh Jahanshahi</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Describe basic data types in Python; Apply methods to basic data types; Enact selection and iteration over basic data types; Construct functions to compose modular code; Describe specialised data structures - the series and dataframe in the Pandas library; Select, filter, aggregate, merge data in the Pandas dataframe; Execute specific operations to handle null values and apply functions.; Plot data in a dataframe column(s).</t>
         </is>
       </c>
     </row>
@@ -739,44 +805,49 @@
           <t>Theory in Machine Learning</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>course duration not found</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>course summary not found</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>learning objective not found</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>description of what the project is; instruction on how to install the tool (if applicable); detailed instructions on basic use; a demo of the code; Low; Medium; High; Critical; Legal!; Data!; Engagement!; Resource!; Tech!; CODE_OF_CONDUCT.md: a statement from the Contributor Covenant regarding what is and isn't acceptable behaviour for contributors; CONTRIBUTING.md: guidelines for how contributions should be made to the work, this should be updated when the work is made public; README.md: this document, every repository should have one and it acts as the main landing page for your repository; LICENSE: the UK public sector usually operate under two different licensing schemes. The most common for code is the MIT license which is included in this repo. Alternatively there is an Open Government license and a description of what OpenGov enforces can be found here.; .github: this directory allows the user to specify templates for contribution types, included in this repository are a bug fix submission template, a feature request template and a pull request template. Each of them includes a series of tickboxes which you can use to help you decide whether or not the submission is suitable.; .gitignore: this file allows you to specify which directories, files and globbed file types are to be ignored as part of the diffs being managed by git. This allows you to have your data in the same directory structure as your code without it needing to be pushed and pulled along with it. If you have data which you do need to manage I would highly advise the use of git-annex ahead of including data files in your repository (unless they are small).</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>No course type detected</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Skill level not found</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://github.com/datasciencecampus/DSCA_ML_theory</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>lead developer not found</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Course reviewer not found</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>README.md: this document, every repository should have one and it acts as the main landing page for your repository; LICENSE: the UK public sector usually operate under two different licensing schemes. The most common for code is the MIT license which is included in this repo. Alternatively there is an Open Government license and a description of what OpenGov enforces can be found here.; .github: this directory allows the user to specify templates for contribution types, included in this repository are a bug fix submission template, a feature request template and a pull request template. Each of them includes a series of tickboxes which you can use to help you decide whether or not the submission is suitable.; .gitignore: this file allows you to specify which directories, files and globbed file types are to be ignored as part of the diffs being managed by git. This allows you to have your data in the same directory structure as your code without it needing to be pushed and pulled along with it. If you have data which you do need to manage I would highly advise the use of git-annex ahead of including data files in your repository (unless they are small).</t>
         </is>
       </c>
     </row>
@@ -786,44 +857,52 @@
           <t>Natural Language Processing with R</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8 Hours</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Natural Language Processing is a sub-field of Artificial Intelligence. It is used for processing and analysing large amounts of natural language (texts). Some applications include search engines (Google), text classification (spam filters), identifying sentiments for a product (sentiment analysis), methods for discovering abstract topics in a collection of documents (topic modelling) and machine translation technologies. In this course you learn about exploratory analysis of text data, introduced to sentiment analysis of texts using sentiment lexicons and the concept of topic modelling (package topicmodels).</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>At the end of this course you should be able to set text data into a form that can be used for analysis, carry out cleaning of text data, exploratory analysis of text data, use meta-data to produce interesting visual displays depicting features of the text data, carry out sentiment analysis using  sentiment lexicons and discover topics in a corpus.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describe the main components of language structure; Perform pre-processing (cleaning) operations on text.; Apply methods from Corpus Linguistics to garner greater insights on a corpus.; Produce word-clouds, bar charts and other basic visualisations on variables of interest.;                                         ;                                         ;                                         </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>E learning - Available; Self learning -  Not Available; Face to face - Available</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Competency in using the R Programming language to perform basic data manipulation is reqiured. For that refer to Intro to R (https://github.com/datasciencecampus/DSCA_Intro-R)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://github.com/datasciencecampus/DSCA_NLPWR</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Sonia Mazzi</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Kaveh Jahanshahi</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Describe the main components of language structure; Perform pre-processing (cleaning) operations on text.; Apply methods from Corpus Linguistics to garner greater insights on a corpus.; Produce word-clouds, bar charts and other basic visualisations on variables of interest.</t>
         </is>
       </c>
     </row>
@@ -833,44 +912,52 @@
           <t>Statistics for Data Science</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>18 Hours</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>This course introduces the basics of carrying out a statistical analysis in Python. It covers exploratory data analysis, constructing and interpreting linear and generalized linear models, and introduces Bayesian modelling.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>By the end of the course students will be comfortable implementing and interpreting linear models and generalized linear model in Python and be familiar with the concepts of Bayesian modelling.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What is tidy data? What is a variable, value, and observation? Several python commands to explore the structure of the data What is the difference between a continuous and categorical variable? What is variation and covariation? ; What is a variable, value, and observation?; Several python commands to explore the structure of the data; What is the difference between a continuous and categorical variable?; What is variation and covariation?; Where Exploratory Data Analysis fits within data analysis? How to use plots to explore variation in A continuous variable A categorical variable  How to use plots to explore covariation between Two categorical variables Two continuous variables A categorical and continuous variable.  ; How to use plots to explore variation in A continuous variable A categorical variable ; A continuous variable; A categorical variable; How to use plots to explore covariation between Two categorical variables Two continuous variables A categorical and continuous variable. ; Two categorical variables; Two continuous variables; A categorical and continuous variable.;  Model Basics What is a model family and fitted model? What is the difference between a response and an explanatory variable? ; What is a model family and fitted model?; What is the difference between a response and an explanatory variable?;  Model Construction How to construct a linear model in python? What are the slope and intercept in a linear model? Picking out key information from the model table How to extract specific parameters from the model object. ; How to construct a linear model in python?; What are the slope and intercept in a linear model?; Picking out key information from the model table; How to extract specific parameters from the model object.;  Assessing Model Fit How to inspect model residuals to assess model fit? How to pick out key information from the table from a fitted model. How to use Adjusted R-squared and AIC to compare models. ; How to inspect model residuals to assess model fit?; How to pick out key information from the table from a fitted model.; How to use Adjusted R-squared and AIC to compare models.;  What is probability? ;  What is a random variable? ;  What a probability distribution is and how it differs for continuous vs. discrete random variables? ;  Be familiar with several common probability distributions used to model variation in the response variable Binomial Normal Poisson Negative Binomial ; Binomial; Normal; Poisson; Negative Binomial;  How to implement a generalized linear model in python. ; What is Baye's rule and how it is used in Bayesian statistics?; How Bayesian and Frequentist schools of thought differ?; How to implement a simple Bayesian linear model in python.; Exploratory Data Analysis (Chapter 1); Generalized Linear Models (Chapter 3); Intro_Bayes (Chapter 4);                                         ;                                         </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>E learning - Not Available; Self learning - Available; Face to face - Available</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Participants should be familiar with Python but do not need any prior statistical training.</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://github.com/datasciencecampus/DSCA_Stats4DS</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Laurie Baker, Dan Lewis</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Pending</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>What is tidy data? What is a variable, value, and observation? Several python commands to explore the structure of the data What is the difference between a continuous and categorical variable? What is variation and covariation? ; What is a variable, value, and observation?; Several python commands to explore the structure of the data; What is the difference between a continuous and categorical variable?; What is variation and covariation?; Where Exploratory Data Analysis fits within data analysis? How to use plots to explore variation in A continuous variable A categorical variable  How to use plots to explore covariation between Two categorical variables Two continuous variables A categorical and continuous variable.  ; How to use plots to explore variation in A continuous variable A categorical variable ; A continuous variable; A categorical variable; How to use plots to explore covariation between Two categorical variables Two continuous variables A categorical and continuous variable. ; Two categorical variables; Two continuous variables; A categorical and continuous variable.;  Model Basics What is a model family and fitted model? What is the difference between a response and an explanatory variable? ; What is a model family and fitted model?; What is the difference between a response and an explanatory variable?;  Model Construction How to construct a linear model in python? What are the slope and intercept in a linear model? Picking out key information from the model table How to extract specific parameters from the model object. ; How to construct a linear model in python?; What are the slope and intercept in a linear model?; Picking out key information from the model table; How to extract specific parameters from the model object.;  Assessing Model Fit How to inspect model residuals to assess model fit? How to pick out key information from the table from a fitted model. How to use Adjusted R-squared and AIC to compare models. ; How to inspect model residuals to assess model fit?; How to pick out key information from the table from a fitted model.; How to use Adjusted R-squared and AIC to compare models.;  What is probability? ;  What is a random variable? ;  What a probability distribution is and how it differs for continuous vs. discrete random variables? ;  Be familiar with several common probability distributions used to model variation in the response variable Binomial Normal Poisson Negative Binomial ; Binomial; Normal; Poisson; Negative Binomial;  How to implement a generalized linear model in python. ; What is Baye's rule and how it is used in Bayesian statistics?; How Bayesian and Frequentist schools of thought differ?; How to implement a simple Bayesian linear model in python.; Exploratory Data Analysis (Chapter 1); Generalized Linear Models (Chapter 3); Intro_Bayes (Chapter 4)</t>
         </is>
       </c>
     </row>
@@ -880,44 +967,52 @@
           <t>Version Control with Git: Github</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4 Hours</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Publications that make the used code available have generally higher impact than publications where code is not available. One important tool for code quality and code sharing is a version control system (VCS). A version control system is a tool that manages changes made to the files and directories in a project. Git, together with GitHub, is one such VCS tool.</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Learners will be able to use Github to create, manage and collaborate on projects.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use Git in their workflow; Use a selection of important Git functions to manage their workflow; Make adjustments to repositories with version control; Unify different versions of the same document;                                         ;                                         </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>E learning - Not Available; Self learning - Not Available; Face to face - Available</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Intermediate / Advanced</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://github.com/datasciencecampus/DSCA_Version-control-with-Git-Github</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Sonia Mazzi</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Pending</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Use Git in their workflow; Use a selection of important Git functions to manage their workflow; Make adjustments to repositories with version control; Unify different versions of the same document</t>
         </is>
       </c>
     </row>
@@ -927,44 +1022,52 @@
           <t>Version controlled RStudio projects</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4 Hours</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>RStudio has the ability to use version control for R projects using a very easy to use graphical interface. In this course we will introduce how R Studio has integrated Git version control into its interface. This allows developers to efficiently track changes in their code over time and effectively collaborate with a team of programmers. This course explains how to use the Git workflow to revise and track changes to an r markdown document, ultimately publishing your own version to web.</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Learners will be able to use R Studio's integrated Git features to improve their ability to track changes and collaborate in their code.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Learn how to use the Git workflow to improve your version control &amp; collaboration; Manage the Git workflow right from the R Studio IDE;                                                           sonjam111               sonjam111                  ;                                                           r-leyshon               r-leyshon                  </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>E learning - Not Available; Self learning - Not Available; Face to face - Available</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Intermediate R user.</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://github.com/datasciencecampus/DSCA_Version-controlled-RStudio-projects</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Sonia Mazzi</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Pending</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Learn how to use the Git workflow to improve your version control &amp; collaboration; Manage the Git workflow right from the R Studio IDE</t>
         </is>
       </c>
     </row>

--- a/output_data/course_catalogue.xlsx
+++ b/output_data/course_catalogue.xlsx
@@ -440,7 +440,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Describe the boolean retrieval model; Execute the boolean retrieval model over a dataset; Describe the vector space model; Execute the vector space model over a dataset.; Describe how a language model can be used to enact retrieval over a dataset; Execute a language modelling approach to enact retrieval over a dataset; Describe supervised machine learning; Describe pathway of a typical machine learning project; Follow steps in pathway to enact classification over a dataset; Describe sentiment analysis; Describe challenges in a sentiment analysis task; Execute sentiment analysis using methods delineated to enact sentiment analysis over a dataset; Describe the topic modelling task over a dataset; Execute topic modelling using steps with code shown over a dataset;                                         ;                                         </t>
+          <t xml:space="preserve">Describe the boolean retrieval model; Execute the boolean retrieval model over a dataset; Describe the vector space model; Execute the vector space model over a dataset.; Describe how a language model can be used to enact retrieval over a dataset; Execute a language modelling approach to enact retrieval over a dataset; Describe supervised machine learning; Describe pathway of a typical machine learning project; Follow steps in pathway to enact classification over a dataset; Describe sentiment analysis; Describe challenges in a sentiment analysis task; Execute sentiment analysis using methods delineated to enact sentiment analysis over a dataset; Describe the topic modelling task over a dataset; Execute topic modelling using steps with code shown over a dataset;                                                           salihadfid1               salihadfid1                  ;                                                           r-leyshon               r-leyshon                  </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> further your knowledge of R markdown: You will further understand the YAML header of a R Markdown document and how to specify parameters that the document will depend on; ;  use functional programming: you will learn how to use the function(al)s map() and walk() from the package purrr to apply a function to the entries of a vector or a list. This will be useful when we read the data in and also to generate all the reports, one per continent, at once; ;  further your coding skills: use conditional if-statements to add information to the report depending on the current parameters. ifelse statements are also used; ;  build on your ggplot2 skills by learning how to produce maps with statistical information in them; ;  get started with writing functions in R: you will be able to write a simple function; ;  learn how to present a table. ;                                         ;                                         </t>
+          <t xml:space="preserve"> further your knowledge of R markdown: You will further understand the YAML header of a R Markdown document and how to specify parameters that the document will depend on; ;  use functional programming: you will learn how to use the function(al)s map() and walk() from the package purrr to apply a function to the entries of a vector or a list. This will be useful when we read the data in and also to generate all the reports, one per continent, at once; ;  further your coding skills: use conditional if-statements to add information to the report depending on the current parameters. ifelse statements are also used; ;  build on your ggplot2 skills by learning how to produce maps with statistical information in them; ;  get started with writing functions in R: you will be able to write a simple function; ;  learn how to present a table. ;                                                           sonjam111               sonjam111                  ;                                                           r-leyshon               r-leyshon                  </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Understand the scientific approach to the data analysis workflow and why and how R contributes to the process. ;  Be able to import data into R in different text formats, flat files, excel, SAS, STATA and SPSS files as well as data from the web. ;  Know the concept of tidy data, identify messy features in a data set and tidy it ready for analysis. ;  Use simple exploratory analysis, including visualisation, to understand the data structure and some information it contains and also to detect, be aware of, and possibly correct, data anomalies. ;  Be able to create a basic report  of  data analysis using a R notebook. ;  Work with the Tidyverse packages readr, tidyr, dplyr, stringr, ggplot2, forcats, lubridate, etc. ;                                                           sonjam111               sonjam111                  ;                                                           r-leyshon               r-leyshon                  </t>
+          <t xml:space="preserve"> Understand the scientific approach to the data analysis workflow and why and how R contributes to the process. ;  Be able to import data into R in different text formats, flat files, excel, SAS, STATA and SPSS files as well as data from the web. ;  Know the concept of tidy data, identify messy features in a data set and tidy it ready for analysis. ;  Use simple exploratory analysis, including visualisation, to understand the data structure and some information it contains and also to detect, be aware of, and possibly correct, data anomalies. ;  Be able to create a basic report  of  data analysis using a R notebook. ;  Work with the Tidyverse packages readr, tidyr, dplyr, stringr, ggplot2, forcats, lubridate, etc. ;                                         ;                                         </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Git in their workflow; Use a selection of important Git functions to manage their workflow; Make adjustments to repositories with version control; Unify different versions of the same document;                                         ;                                         </t>
+          <t xml:space="preserve">Use Git in their workflow; Use a selection of important Git functions to manage their workflow; Make adjustments to repositories with version control; Unify different versions of the same document;                                                           sonjam111               sonjam111                  ;                                                           r-leyshon               r-leyshon                  </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Learn how to use the Git workflow to improve your version control &amp; collaboration; Manage the Git workflow right from the R Studio IDE;                                                           sonjam111               sonjam111                  ;                                                           r-leyshon               r-leyshon                  </t>
+          <t xml:space="preserve">Learn how to use the Git workflow to improve your version control &amp; collaboration; Manage the Git workflow right from the R Studio IDE;                                         ;                                         </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">

--- a/output_data/course_catalogue.xlsx
+++ b/output_data/course_catalogue.xlsx
@@ -440,7 +440,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Describe the boolean retrieval model; Execute the boolean retrieval model over a dataset; Describe the vector space model; Execute the vector space model over a dataset.; Describe how a language model can be used to enact retrieval over a dataset; Execute a language modelling approach to enact retrieval over a dataset; Describe supervised machine learning; Describe pathway of a typical machine learning project; Follow steps in pathway to enact classification over a dataset; Describe sentiment analysis; Describe challenges in a sentiment analysis task; Execute sentiment analysis using methods delineated to enact sentiment analysis over a dataset; Describe the topic modelling task over a dataset; Execute topic modelling using steps with code shown over a dataset;                                                           salihadfid1               salihadfid1                  ;                                                           r-leyshon               r-leyshon                  </t>
+          <t>Describe the boolean retrieval model; Execute the boolean retrieval model over a dataset; Describe the vector space model; Execute the vector space model over a dataset.; Describe how a language model can be used to enact retrieval over a dataset; Execute a language modelling approach to enact retrieval over a dataset; Describe supervised machine learning; Describe pathway of a typical machine learning project; Follow steps in pathway to enact classification over a dataset; Describe sentiment analysis; Describe challenges in a sentiment analysis task; Execute sentiment analysis using methods delineated to enact sentiment analysis over a dataset; Describe the topic modelling task over a dataset; Execute topic modelling using steps with code shown over a dataset</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> further your knowledge of R markdown: You will further understand the YAML header of a R Markdown document and how to specify parameters that the document will depend on; ;  use functional programming: you will learn how to use the function(al)s map() and walk() from the package purrr to apply a function to the entries of a vector or a list. This will be useful when we read the data in and also to generate all the reports, one per continent, at once; ;  further your coding skills: use conditional if-statements to add information to the report depending on the current parameters. ifelse statements are also used; ;  build on your ggplot2 skills by learning how to produce maps with statistical information in them; ;  get started with writing functions in R: you will be able to write a simple function; ;  learn how to present a table. ;                                                           sonjam111               sonjam111                  ;                                                           r-leyshon               r-leyshon                  </t>
+          <t xml:space="preserve"> further your knowledge of R markdown: You will further understand the YAML header of a R Markdown document and how to specify parameters that the document will depend on; ;  use functional programming: you will learn how to use the function(al)s map() and walk() from the package purrr to apply a function to the entries of a vector or a list. This will be useful when we read the data in and also to generate all the reports, one per continent, at once; ;  further your coding skills: use conditional if-statements to add information to the report depending on the current parameters. ifelse statements are also used; ;  build on your ggplot2 skills by learning how to produce maps with statistical information in them; ;  get started with writing functions in R: you will be able to write a simple function; ;  learn how to present a table. </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Understand the scientific approach to the data analysis workflow and why and how R contributes to the process. ;  Be able to import data into R in different text formats, flat files, excel, SAS, STATA and SPSS files as well as data from the web. ;  Know the concept of tidy data, identify messy features in a data set and tidy it ready for analysis. ;  Use simple exploratory analysis, including visualisation, to understand the data structure and some information it contains and also to detect, be aware of, and possibly correct, data anomalies. ;  Be able to create a basic report  of  data analysis using a R notebook. ;  Work with the Tidyverse packages readr, tidyr, dplyr, stringr, ggplot2, forcats, lubridate, etc. ;                                         ;                                         </t>
+          <t xml:space="preserve"> Understand the scientific approach to the data analysis workflow and why and how R contributes to the process. ;  Be able to import data into R in different text formats, flat files, excel, SAS, STATA and SPSS files as well as data from the web. ;  Know the concept of tidy data, identify messy features in a data set and tidy it ready for analysis. ;  Use simple exploratory analysis, including visualisation, to understand the data structure and some information it contains and also to detect, be aware of, and possibly correct, data anomalies. ;  Be able to create a basic report  of  data analysis using a R notebook. ;  Work with the Tidyverse packages readr, tidyr, dplyr, stringr, ggplot2, forcats, lubridate, etc. </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>become familiar with how a plot is built using ggplot and leaflet and ways to build and customise their plots using both packages.; There is a pdf copy of the the ggplot2 and leaflet course slides in the folder slides.; The exercises folder included the accompanying exercises for ggplot2. Leaflet exercises are still being prepared.</t>
+          <t>become familiar with how a plot is built using ggplot and leaflet and ways to build and customise their plots using both packages.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Familiarise themselves with RStudio and R Notebooks, which is what we’ll use to interact with R. ;  Learn about the simple data structures in R: object, vector, and data frame. ;  Explore R's basic data types = integer, character, numeric, etc. ;  Learn to read data into R. ;  Introduction to data wrangling using the tidyverse set of metapackages. ;  Use the tidyverse verbs to explore the gapminder data set which includes statistics for countries around the world including life expectancy, population, and GDP per capita. ;  Learn to merge datasets using left_join. ;  Create meaningful visualisations of the data using ggplot2. ;  Learn where to go for help. ; Day 1 part 1 &amp; 2; Day 2 part 1 &amp; 2; Day 1: IntroR_exercises.Rmd; Day 2: IntroR_exercises_part2.Rmd; IntroR4IntlDev.html (Self-learning tutorial in html); IntroR4IntlDev.Rmd (R markdown to run exercises); IntroR_part1_slides.pdf (also available in .html); IntroR_part2_slides.pdf (also available in .html); Day 1: IntroR_exercises.Rmd; Day 2: IntroR_exercises_part2.Rmd;                                         ;                                         </t>
+          <t xml:space="preserve"> Familiarise themselves with RStudio and R Notebooks, which is what we’ll use to interact with R. ;  Learn about the simple data structures in R: object, vector, and data frame. ;  Explore R's basic data types = integer, character, numeric, etc. ;  Learn to read data into R. ;  Introduction to data wrangling using the tidyverse set of metapackages. ;  Use the tidyverse verbs to explore the gapminder data set which includes statistics for countries around the world including life expectancy, population, and GDP per capita. ;  Learn to merge datasets using left_join. ;  Create meaningful visualisations of the data using ggplot2. ;  Learn where to go for help. </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Describe the main components of language structure; Perform pre-processing (cleaning) operations on text.; Apply methods from Corpus Linguistics to garner greater insights on a corpus.; Produce word-clouds, bar charts and other basic visualisations on variables of interest.; Produce clusters using the k-means algorithm to uncover patterns in a corpus; Transform text to vectors using approaches delineated.; Produce word embeddings on a corpus; Calculate the probability of a sentence using a language modelling approach;                                         ;                                         </t>
+          <t>Describe the main components of language structure; Perform pre-processing (cleaning) operations on text.; Apply methods from Corpus Linguistics to garner greater insights on a corpus.; Produce word-clouds, bar charts and other basic visualisations on variables of interest.; Produce clusters using the k-means algorithm to uncover patterns in a corpus; Transform text to vectors using approaches delineated.; Produce word embeddings on a corpus; Calculate the probability of a sentence using a language modelling approach</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Describe basic data types in Python; Apply methods to basic data types; Enact selection and iteration over basic data types; Construct functions to compose modular code; Describe specialised data structures - the series and dataframe in the Pandas library; Select, filter, aggregate, merge data in the Pandas dataframe; Execute specific operations to handle null values and apply functions.; Plot data in a dataframe column(s).;                                         ;                                         ;                                         </t>
+          <t>Describe basic data types in Python; Apply methods to basic data types; Enact selection and iteration over basic data types; Construct functions to compose modular code; Describe specialised data structures - the series and dataframe in the Pandas library; Select, filter, aggregate, merge data in the Pandas dataframe; Execute specific operations to handle null values and apply functions.; Plot data in a dataframe column(s).</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>description of what the project is; instruction on how to install the tool (if applicable); detailed instructions on basic use; a demo of the code; Low; Medium; High; Critical; Legal!; Data!; Engagement!; Resource!; Tech!; CODE_OF_CONDUCT.md: a statement from the Contributor Covenant regarding what is and isn't acceptable behaviour for contributors; CONTRIBUTING.md: guidelines for how contributions should be made to the work, this should be updated when the work is made public; README.md: this document, every repository should have one and it acts as the main landing page for your repository; LICENSE: the UK public sector usually operate under two different licensing schemes. The most common for code is the MIT license which is included in this repo. Alternatively there is an Open Government license and a description of what OpenGov enforces can be found here.; .github: this directory allows the user to specify templates for contribution types, included in this repository are a bug fix submission template, a feature request template and a pull request template. Each of them includes a series of tickboxes which you can use to help you decide whether or not the submission is suitable.; .gitignore: this file allows you to specify which directories, files and globbed file types are to be ignored as part of the diffs being managed by git. This allows you to have your data in the same directory structure as your code without it needing to be pushed and pulled along with it. If you have data which you do need to manage I would highly advise the use of git-annex ahead of including data files in your repository (unless they are small).</t>
+          <t>Learning Objectives Not Found</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Describe the main components of language structure; Perform pre-processing (cleaning) operations on text.; Apply methods from Corpus Linguistics to garner greater insights on a corpus.; Produce word-clouds, bar charts and other basic visualisations on variables of interest.;                                         ;                                         ;                                         </t>
+          <t>Describe the main components of language structure; Perform pre-processing (cleaning) operations on text.; Apply methods from Corpus Linguistics to garner greater insights on a corpus.; Produce word-clouds, bar charts and other basic visualisations on variables of interest.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">What is tidy data? What is a variable, value, and observation? Several python commands to explore the structure of the data What is the difference between a continuous and categorical variable? What is variation and covariation? ; What is a variable, value, and observation?; Several python commands to explore the structure of the data; What is the difference between a continuous and categorical variable?; What is variation and covariation?; Where Exploratory Data Analysis fits within data analysis? How to use plots to explore variation in A continuous variable A categorical variable  How to use plots to explore covariation between Two categorical variables Two continuous variables A categorical and continuous variable.  ; How to use plots to explore variation in A continuous variable A categorical variable ; A continuous variable; A categorical variable; How to use plots to explore covariation between Two categorical variables Two continuous variables A categorical and continuous variable. ; Two categorical variables; Two continuous variables; A categorical and continuous variable.;  Model Basics What is a model family and fitted model? What is the difference between a response and an explanatory variable? ; What is a model family and fitted model?; What is the difference between a response and an explanatory variable?;  Model Construction How to construct a linear model in python? What are the slope and intercept in a linear model? Picking out key information from the model table How to extract specific parameters from the model object. ; How to construct a linear model in python?; What are the slope and intercept in a linear model?; Picking out key information from the model table; How to extract specific parameters from the model object.;  Assessing Model Fit How to inspect model residuals to assess model fit? How to pick out key information from the table from a fitted model. How to use Adjusted R-squared and AIC to compare models. ; How to inspect model residuals to assess model fit?; How to pick out key information from the table from a fitted model.; How to use Adjusted R-squared and AIC to compare models.;  What is probability? ;  What is a random variable? ;  What a probability distribution is and how it differs for continuous vs. discrete random variables? ;  Be familiar with several common probability distributions used to model variation in the response variable Binomial Normal Poisson Negative Binomial ; Binomial; Normal; Poisson; Negative Binomial;  How to implement a generalized linear model in python. ; What is Baye's rule and how it is used in Bayesian statistics?; How Bayesian and Frequentist schools of thought differ?; How to implement a simple Bayesian linear model in python.; Exploratory Data Analysis (Chapter 1); Generalized Linear Models (Chapter 3); Intro_Bayes (Chapter 4);                                         ;                                         </t>
+          <t>What is tidy data? What is a variable, value, and observation? Several python commands to explore the structure of the data What is the difference between a continuous and categorical variable? What is variation and covariation? ; What is a variable, value, and observation?; Several python commands to explore the structure of the data; What is the difference between a continuous and categorical variable?; What is variation and covariation?; Where Exploratory Data Analysis fits within data analysis? How to use plots to explore variation in continuous variable and categorical variables How to use plots to explore covariation between two categorical variables, two continuous variables or a categorical and continuous variable. ; How to use plots to explore variation in continuous variable and categorical variables; How to use plots to explore covariation between two categorical variables, two continuous variables or a categorical and continuous variable.;  Model Basics What is a model family and fitted model? What is the difference between a response and an explanatory variable? ; What is a model family and fitted model?; What is the difference between a response and an explanatory variable?;  Model Construction How to construct a linear model in python? What are the slope and intercept in a linear model? Picking out key information from the model table How to extract specific parameters from the model object. ; How to construct a linear model in python?; What are the slope and intercept in a linear model?; Picking out key information from the model table; How to extract specific parameters from the model object.;  Assessing Model Fit How to inspect model residuals to assess model fit? How to pick out key information from the table from a fitted model. How to use Adjusted R-squared and AIC to compare models. ; How to inspect model residuals to assess model fit?; How to pick out key information from the table from a fitted model.; How to use Adjusted R-squared and AIC to compare models.;  What is probability? ;  What is a random variable? ;  What a probability distribution is and how it differs for continuous vs. discrete random variables? ;  Be familiar with several common probability distributions used to model variation in the response variable Binomial Normal Poisson Negative Binomial ; Binomial; Normal; Poisson; Negative Binomial;  How to implement a generalized linear model in python. ; What is Baye's rule and how it is used in Bayesian statistics?; How Bayesian and Frequentist schools of thought differ?; How to implement a simple Bayesian linear model in python.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Git in their workflow; Use a selection of important Git functions to manage their workflow; Make adjustments to repositories with version control; Unify different versions of the same document;                                                           sonjam111               sonjam111                  ;                                                           r-leyshon               r-leyshon                  </t>
+          <t>Use Git in their workflow; Use a selection of important Git functions to manage their workflow; Make adjustments to repositories with version control; Unify different versions of the same document</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Learn how to use the Git workflow to improve your version control &amp; collaboration; Manage the Git workflow right from the R Studio IDE;                                         ;                                         </t>
+          <t>Learn how to use the Git workflow to improve your version control &amp; collaboration; Manage the Git workflow right from the R Studio IDE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">

--- a/output_data/course_catalogue.xlsx
+++ b/output_data/course_catalogue.xlsx
@@ -425,12 +425,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6 Hours</t>
+          <t>course duration not found</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This course will focus on four key topics in Natural Language Processing: information retrieval, classification, sentiment analysis and topic modelling. Information retrieval covers the building blocks of a search engine - the inverted index and maps out in detail with both illustrations and code how an information retrieval application can be built. Three disparate, classical approaches will be examined to fulfil this objective. Classification will then be outlined, focusing on its supervised machine learning foundations. A real-world classification problem of news classification will be illustrated using a BBC news dataset. Classification will again be enacted to undertake sentiment analysis. Key challanges in the field of sentiment analysis will also be explored.  Topic Modelling as the name suggests is a process to automatically identify topics present in a datset. The course will demostrate from a practical perspective how this can be attained.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -480,12 +480,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6 Hours</t>
+          <t>course duration not found</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R is a powerful tool for data analysis and, when coupled with RStudio, the reproducibility feature of coding is further enhanced. Using RStudio and literate programming it is possible to automate the production of reports, replacing tedious and non-reproducible practices of copying and pasting.</t>
+          <t>course summary not found</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,12 +535,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12 Hours</t>
+          <t>course duration not found</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>This course gives the essential knowledge to get started with a data science project in R using the Tidyverse package (https://www.tidyverse.org). We will learn to tell stories with data using the scientific data analysis workflow and analytic tools based on the R system.</t>
+          <t>course summary not found</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,12 +590,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5 Hours</t>
+          <t>course duration not found</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>This course introduces students to the grammar of graphics and building a plot using ggplot2. In the second part, students are introduced to building interactive maps using leaflet.</t>
+          <t>course summary not found</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -645,12 +645,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10 Hours</t>
+          <t>course duration not found</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Designed for statistical analysis and reporting, R is a powerful tool for data analysis. This course focuses on the application of key data skills, providing opportunities to build confidence, independence, and resilience. This 1 day course will introduce you to the building blocks of R including objects, vectors, and data frames and will examine common data types (e.g. character, factor). During the course we will also cover data manipulation using dplyr and data visualisation using ggplot with examples from the gapminder dataset.</t>
+          <t>course summary not found</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6 Hours</t>
+          <t>Course Objective</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Natural Language Processing is a sub-field of Artificial Intelligence. It is used for processing and analysing large amounts of natural language. Some applications include search engines (Google), text classification (spam filters), identifying sentiments for a product (sentiment analysis), methods for discovering abstract topics in a collection of documents (topic modelling) and machine translation technologies. Concepts covered include cleaning, exploring datasets through methods rooted in Corpus Linguistics, and application of feature engineering techniques to transform textual data into a numerical representation. Key techniques such as word embeddings and language modelling are also introduced as well as illustrations as to how they can be performed over a dataset.</t>
+          <t>Lead Developer Participants should gain competancy in using core techniques to handle natural language content to undertake analysis to detect patterns and derive insights for development of applications like mentioned in course summary Course Objective Natural Language Processing is a sub-field of Artificial Intelligence. It is used for processing and analysing large amounts of natural language. Some applications include search engines (Google), text classification (spam filters), identifying sentiments for a product (sentiment analysis), methods for discovering abstract topics in a collection of documents (topic modelling) and machine translation technologies. Concepts covered include cleaning, exploring datasets through methods rooted in Corpus Linguistics, and application of feature engineering techniques to transform textual data into a numerical representation. Key techniques such as word embeddings and language modelling are also introduced as well as illustrations as to how they can be performed over a dataset.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -755,12 +755,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10 Hours</t>
+          <t>course duration not found</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>This course is delivered through the Jupyter notebook application. It begins with a coverage of fundamental building blocks in Python -  numeric data types, strings, lists, dictionaries, sets - replete with examples. Illustrations are then provided on the use of these data types to compose code with selection and iteration constructs.  To promote modular and readable code the set-up and use of functions with parameters are also covered. Specialised knowledge in data analysis is then developed through a comprehensive overview of the Pandas library. The two main data structures in this library – the series and dataframe and associated methods are explained with clarifying examples on how to select, filter, aggregate and merge data. Keys tasks like handling null values, applying functions, plotting are also highlighted.  Each section has exercises for participants to attempt to consolidate their learning.</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -862,12 +862,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8 Hours</t>
+          <t>course duration not found</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Natural Language Processing is a sub-field of Artificial Intelligence. It is used for processing and analysing large amounts of natural language (texts). Some applications include search engines (Google), text classification (spam filters), identifying sentiments for a product (sentiment analysis), methods for discovering abstract topics in a collection of documents (topic modelling) and machine translation technologies. In this course you learn about exploratory analysis of text data, introduced to sentiment analysis of texts using sentiment lexicons and the concept of topic modelling (package topicmodels).</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -917,12 +917,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18 Hours</t>
+          <t>course duration not found</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>This course introduces the basics of carrying out a statistical analysis in Python. It covers exploratory data analysis, constructing and interpreting linear and generalized linear models, and introduces Bayesian modelling.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>course duration not found</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Publications that make the used code available have generally higher impact than publications where code is not available. One important tool for code quality and code sharing is a version control system (VCS). A version control system is a tool that manages changes made to the files and directories in a project. Git, together with GitHub, is one such VCS tool.</t>
+          <t>course summary not found</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>course duration not found</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RStudio has the ability to use version control for R projects using a very easy to use graphical interface. In this course we will introduce how R Studio has integrated Git version control into its interface. This allows developers to efficiently track changes in their code over time and effectively collaborate with a team of programmers. This course explains how to use the Git workflow to revise and track changes to an r markdown document, ultimately publishing your own version to web.</t>
+          <t>course summary not found</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/output_data/course_catalogue.xlsx
+++ b/output_data/course_catalogue.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,7 +490,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>R users will improve their skills using R markdown to produce automated reports based upon their analyses. Learners will inderstand hw to 'paramaterize' their markdown reports, reducing the need for manual adjustments. Learners will explore the diffreent options for presentation of output to stakeholders.</t>
+          <t>R users will improve their skills using R markdown to produce automated reports based upon their analyses. Learners will understand how to 'paramaterize' their markdown reports, reducing the need for manual adjustments. Learners will explore the diffreent options for presentation of output to stakeholders.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>E learning - Available; Self learning - Available; Face to face - Available</t>
+          <t>E learning - Available; Self learning - Available Soon; Face to face - Available</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -760,22 +760,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Participants should attain a good understanding of basic data types in Python and associated methods and constructs that can be applied to them. They should also become knowledgeable in how to deal with tabular data through using the specialised data structures found in the Pandas library and how to perform key analysis through methods available in this library.</t>
+          <t>Participants should attain a good understanding of basic data types in Python and associated methods and constructs that can be applied to them.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Describe basic data types in Python; Apply methods to basic data types; Enact selection and iteration over basic data types; Construct functions to compose modular code; Describe specialised data structures - the series and dataframe in the Pandas library; Select, filter, aggregate, merge data in the Pandas dataframe; Execute specific operations to handle null values and apply functions.; Plot data in a dataframe column(s).</t>
+          <t>Describe basic data types in Python; Apply methods to basic data types; Enact selection and iteration over basic data types; Construct functions to compose modular code</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>E learning - Available; Self learning - Not Available; Face to face - Available</t>
+          <t>E learning - Available; Self learning - Available Soon; Face to face - Available</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -802,8 +802,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Theory in Machine Learning</t>
-        </is>
+          <t>Natural Language Processing with R</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -812,49 +815,49 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>course summary not found</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>learning objective not found</t>
+          <t>At the end of this course you should be able to set text data into a form that can be used for analysis, carry out cleaning of text data, exploratory analysis of text data, use meta-data to produce interesting visual displays depicting features of the text data, carry out sentiment analysis using  sentiment lexicons and discover topics in a corpus.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Learning Objectives Not Found</t>
+          <t>Describe the main components of language structure; Perform pre-processing (cleaning) operations on text.; Apply methods from Corpus Linguistics to garner greater insights on a corpus.; Produce word-clouds, bar charts and other basic visualisations on variables of interest.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>No course type detected</t>
+          <t>E learning - Available; Self learning -  Not Available; Face to face - Available</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Skill level not found</t>
+          <t>Competency in using the R Programming language to perform basic data manipulation is reqiured. For that refer to Intro to R (https://github.com/datasciencecampus/DSCA_Intro-R)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://github.com/datasciencecampus/DSCA_ML_theory</t>
+          <t>https://github.com/datasciencecampus/DSCA_NLPWR</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>lead developer not found</t>
+          <t>Sonia Mazzi</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Course reviewer not found</t>
+          <t>Kaveh Jahanshahi</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Natural Language Processing with R</t>
+          <t>Statistics for Data Science</t>
         </is>
       </c>
       <c r="B10">
@@ -872,44 +875,44 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>At the end of this course you should be able to set text data into a form that can be used for analysis, carry out cleaning of text data, exploratory analysis of text data, use meta-data to produce interesting visual displays depicting features of the text data, carry out sentiment analysis using  sentiment lexicons and discover topics in a corpus.</t>
+          <t>By the end of the course students will be comfortable implementing and interpreting linear models and generalized linear model in Python and be familiar with the concepts of Bayesian modelling.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Describe the main components of language structure; Perform pre-processing (cleaning) operations on text.; Apply methods from Corpus Linguistics to garner greater insights on a corpus.; Produce word-clouds, bar charts and other basic visualisations on variables of interest.</t>
+          <t>What is tidy data? What is a variable, value, and observation? Several python commands to explore the structure of the data What is the difference between a continuous and categorical variable? What is variation and covariation? ; What is a variable, value, and observation?; Several python commands to explore the structure of the data; What is the difference between a continuous and categorical variable?; What is variation and covariation?; Where Exploratory Data Analysis fits within data analysis? How to use plots to explore variation in continuous variable and categorical variables How to use plots to explore covariation between two categorical variables, two continuous variables or a categorical and continuous variable. ; How to use plots to explore variation in continuous variable and categorical variables; How to use plots to explore covariation between two categorical variables, two continuous variables or a categorical and continuous variable.;  Model Basics What is a model family and fitted model? What is the difference between a response and an explanatory variable? ; What is a model family and fitted model?; What is the difference between a response and an explanatory variable?;  Model Construction How to construct a linear model in python? What are the slope and intercept in a linear model? Picking out key information from the model table How to extract specific parameters from the model object. ; How to construct a linear model in python?; What are the slope and intercept in a linear model?; Picking out key information from the model table; How to extract specific parameters from the model object.;  Assessing Model Fit How to inspect model residuals to assess model fit? How to pick out key information from the table from a fitted model. How to use Adjusted R-squared and AIC to compare models. ; How to inspect model residuals to assess model fit?; How to pick out key information from the table from a fitted model.; How to use Adjusted R-squared and AIC to compare models.;  What is probability? ;  What is a random variable? ;  What a probability distribution is and how it differs for continuous vs. discrete random variables? ;  Be familiar with several common probability distributions used to model variation in the response variable Binomial Normal Poisson Negative Binomial ; Binomial; Normal; Poisson; Negative Binomial;  How to implement a generalized linear model in python. ; What is Baye's rule and how it is used in Bayesian statistics?; How Bayesian and Frequentist schools of thought differ?; How to implement a simple Bayesian linear model in python.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>E learning - Available; Self learning -  Not Available; Face to face - Available</t>
+          <t>E learning - Not Available; Self learning - Available; Face to face - Available</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Competency in using the R Programming language to perform basic data manipulation is reqiured. For that refer to Intro to R (https://github.com/datasciencecampus/DSCA_Intro-R)</t>
+          <t>Participants should be familiar with Python but do not need any prior statistical training.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://github.com/datasciencecampus/DSCA_NLPWR</t>
+          <t>https://github.com/datasciencecampus/DSCA_Stats4DS</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Sonia Mazzi</t>
+          <t>Laurie Baker, Dan Lewis</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Kaveh Jahanshahi</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Statistics for Data Science</t>
+          <t>Version Control with Git: Github</t>
         </is>
       </c>
       <c r="B11">
@@ -922,37 +925,37 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>course summary not found</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>By the end of the course students will be comfortable implementing and interpreting linear models and generalized linear model in Python and be familiar with the concepts of Bayesian modelling.</t>
+          <t>Learners will be able to use Github to create, manage and collaborate on projects.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>What is tidy data? What is a variable, value, and observation? Several python commands to explore the structure of the data What is the difference between a continuous and categorical variable? What is variation and covariation? ; What is a variable, value, and observation?; Several python commands to explore the structure of the data; What is the difference between a continuous and categorical variable?; What is variation and covariation?; Where Exploratory Data Analysis fits within data analysis? How to use plots to explore variation in continuous variable and categorical variables How to use plots to explore covariation between two categorical variables, two continuous variables or a categorical and continuous variable. ; How to use plots to explore variation in continuous variable and categorical variables; How to use plots to explore covariation between two categorical variables, two continuous variables or a categorical and continuous variable.;  Model Basics What is a model family and fitted model? What is the difference between a response and an explanatory variable? ; What is a model family and fitted model?; What is the difference between a response and an explanatory variable?;  Model Construction How to construct a linear model in python? What are the slope and intercept in a linear model? Picking out key information from the model table How to extract specific parameters from the model object. ; How to construct a linear model in python?; What are the slope and intercept in a linear model?; Picking out key information from the model table; How to extract specific parameters from the model object.;  Assessing Model Fit How to inspect model residuals to assess model fit? How to pick out key information from the table from a fitted model. How to use Adjusted R-squared and AIC to compare models. ; How to inspect model residuals to assess model fit?; How to pick out key information from the table from a fitted model.; How to use Adjusted R-squared and AIC to compare models.;  What is probability? ;  What is a random variable? ;  What a probability distribution is and how it differs for continuous vs. discrete random variables? ;  Be familiar with several common probability distributions used to model variation in the response variable Binomial Normal Poisson Negative Binomial ; Binomial; Normal; Poisson; Negative Binomial;  How to implement a generalized linear model in python. ; What is Baye's rule and how it is used in Bayesian statistics?; How Bayesian and Frequentist schools of thought differ?; How to implement a simple Bayesian linear model in python.</t>
+          <t>Use Git in their workflow; Use a selection of important Git functions to manage their workflow; Make adjustments to repositories with version control; Unify different versions of the same document</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>E learning - Not Available; Self learning - Available; Face to face - Available</t>
+          <t>E learning - Not Available; Self learning - Not Available; Face to face - Available</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Participants should be familiar with Python but do not need any prior statistical training.</t>
+          <t>Intermediate / Advanced</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://github.com/datasciencecampus/DSCA_Stats4DS</t>
+          <t>https://github.com/datasciencecampus/DSCA_Version-control-with-Git-Github</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Laurie Baker, Dan Lewis</t>
+          <t>Sonia Mazzi</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -964,7 +967,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Version Control with Git: Github</t>
+          <t>Version controlled RStudio projects</t>
         </is>
       </c>
       <c r="B12">
@@ -982,12 +985,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Learners will be able to use Github to create, manage and collaborate on projects.</t>
+          <t>Learners will be able to use R Studio's integrated Git features to improve their ability to track changes and collaborate in their code.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Use Git in their workflow; Use a selection of important Git functions to manage their workflow; Make adjustments to repositories with version control; Unify different versions of the same document</t>
+          <t>Learn how to use the Git workflow to improve your version control &amp; collaboration; Manage the Git workflow right from the R Studio IDE</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -997,12 +1000,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Intermediate / Advanced</t>
+          <t>Intermediate R user.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://github.com/datasciencecampus/DSCA_Version-control-with-Git-Github</t>
+          <t>https://github.com/datasciencecampus/DSCA_Version-controlled-RStudio-projects</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1011,61 +1014,6 @@
         </is>
       </c>
       <c r="K12" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Version controlled RStudio projects</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>course duration not found</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>course summary not found</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Learners will be able to use R Studio's integrated Git features to improve their ability to track changes and collaborate in their code.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Learn how to use the Git workflow to improve your version control &amp; collaboration; Manage the Git workflow right from the R Studio IDE</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>E learning - Not Available; Self learning - Not Available; Face to face - Available</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Intermediate R user.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>https://github.com/datasciencecampus/DSCA_Version-controlled-RStudio-projects</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Sonia Mazzi</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>

--- a/output_data/course_catalogue.xlsx
+++ b/output_data/course_catalogue.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,12 +425,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>course duration not found</t>
+          <t>6 Hours</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>This course will focus on four key topics in Natural Language Processing: information retrieval, classification, sentiment analysis and topic modelling. Information retrieval covers the building blocks of a search engine - the inverted index and maps out in detail with both illustrations and code how an information retrieval application can be built. Three disparate, classical approaches will be examined to fulfil this objective. Classification will then be outlined, focusing on its supervised machine learning foundations. A real-world classification problem of news classification will be illustrated using a BBC news dataset. Classification will again be enacted to undertake sentiment analysis. Key challanges in the field of sentiment analysis will also be explored.  Topic Modelling as the name suggests is a process to automatically identify topics present in a datset. The course will demostrate from a practical perspective how this can be attained.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -480,12 +480,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>course duration not found</t>
+          <t>6 Hours</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>course summary not found</t>
+          <t>R is a powerful tool for data analysis and, when coupled with RStudio, the reproducibility feature of coding is further enhanced. Using RStudio and literate programming it is possible to automate the production of reports, replacing tedious and non-reproducible practices of copying and pasting.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,12 +535,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>course duration not found</t>
+          <t>12 Hours</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>course summary not found</t>
+          <t>This course gives the essential knowledge to get started with a data science project in R using the Tidyverse package (https://www.tidyverse.org). We will learn to tell stories with data using the scientific data analysis workflow and analytic tools based on the R system.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,12 +590,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>course duration not found</t>
+          <t>5 Hours</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>course summary not found</t>
+          <t>This course introduces students to the grammar of graphics and building a plot using ggplot2. In the second part, students are introduced to building interactive maps using leaflet.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -645,12 +645,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>course duration not found</t>
+          <t>10 Hours</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>course summary not found</t>
+          <t>Designed for statistical analysis and reporting, R is a powerful tool for data analysis. This course focuses on the application of key data skills, providing opportunities to build confidence, independence, and resilience. This 1 day course will introduce you to the building blocks of R including objects, vectors, and data frames and will examine common data types (e.g. character, factor). During the course we will also cover data manipulation using dplyr and data visualisation using ggplot with examples from the gapminder dataset.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Course Objective</t>
+          <t>6 Hours</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Lead Developer Participants should gain competancy in using core techniques to handle natural language content to undertake analysis to detect patterns and derive insights for development of applications like mentioned in course summary Course Objective Natural Language Processing is a sub-field of Artificial Intelligence. It is used for processing and analysing large amounts of natural language. Some applications include search engines (Google), text classification (spam filters), identifying sentiments for a product (sentiment analysis), methods for discovering abstract topics in a collection of documents (topic modelling) and machine translation technologies. Concepts covered include cleaning, exploring datasets through methods rooted in Corpus Linguistics, and application of feature engineering techniques to transform textual data into a numerical representation. Key techniques such as word embeddings and language modelling are also introduced as well as illustrations as to how they can be performed over a dataset.</t>
+          <t>Natural Language Processing is a sub-field of Artificial Intelligence. It is used for processing and analysing large amounts of natural language. Some applications include search engines (Google), text classification (spam filters), identifying sentiments for a product (sentiment analysis), methods for discovering abstract topics in a collection of documents (topic modelling) and machine translation technologies. Concepts covered include cleaning, exploring datasets through methods rooted in Corpus Linguistics, and application of feature engineering techniques to transform textual data into a numerical representation. Key techniques such as word embeddings and language modelling are also introduced as well as illustrations as to how they can be performed over a dataset.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -755,12 +755,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>course duration not found</t>
+          <t>6 to 8 Hours</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>This course is delivered through the Jupyter notebook application. It begins with a coverage of fundamental building blocks in Python -  numeric data types, strings, lists, dictionaries, sets - replete with examples. Illustrations are then provided on the use of these data types to compose code with selection and iteration constructs.  To promote modular and readable code the set-up and use of functions with parameters are also covered.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -802,7 +802,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Natural Language Processing with R</t>
+          <t>Fundemental theories in Machine Learning</t>
         </is>
       </c>
       <c r="B9">
@@ -810,22 +810,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>course duration not found</t>
+          <t>8 Hours</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>This course covers the fundemental topics in machine learning and prepare audience for more advanced topics (e.g. image processing, NLP, and deep learning) and practical courses such as training and application of machine learning algorithms in R and Python. The course includes combination of graphical presentation and intuition and essential mathematical notations.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>At the end of this course you should be able to set text data into a form that can be used for analysis, carry out cleaning of text data, exploratory analysis of text data, use meta-data to produce interesting visual displays depicting features of the text data, carry out sentiment analysis using  sentiment lexicons and discover topics in a corpus.</t>
+          <t>This course aims to:</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Describe the main components of language structure; Perform pre-processing (cleaning) operations on text.; Apply methods from Corpus Linguistics to garner greater insights on a corpus.; Produce word-clouds, bar charts and other basic visualisations on variables of interest.</t>
+          <t>Provide a thorough introduction into probabilityb theory and statistical inference including maximum-likelihood and Bayesian approaches; Introduce supervised learning methods: linear and nonlinear regressions and classification algorithms; Introduce unsupervised learning methods: clustering, and dimensionality reduction; Breif introduction to Directed Graphical Models with a case study/example.; be able to describe the diffence between frequentist and bayessian statistics; Undrestand the fundementals of probability theory, bayesian rule and inference, and the characteristics of major probability distributions.; Get a good undrestanding of major supervised learning algorithms specifically linear in parameter regression, bayesian linear regression, and classification methods.; Get a good understanding of main unsupervised learning algorithms specifically clustering and data dimensionality reduction algorithms.; Get familiar with directed graphical method as a technique of combining supervised and unsupervised learning into one modelling framework; be prepared to built on their current knowledge or take on more advanced courses such as application of machine learning techniques in natural language processing; be prepared to apply their knowledge through formulating machine learning problems and coding using standard libraries (e.g. in R and Python)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -835,29 +835,29 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Competency in using the R Programming language to perform basic data manipulation is reqiured. For that refer to Intro to R (https://github.com/datasciencecampus/DSCA_Intro-R)</t>
+          <t>Some basic knowledge in linear algebra and statistics is expected.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://github.com/datasciencecampus/DSCA_NLPWR</t>
+          <t>https://github.com/datasciencecampus/DSCA_ML_theory</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Sonia Mazzi</t>
+          <t>Kaveh Jahanshahi</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Kaveh Jahanshahi</t>
+          <t>Laurie Baker  Isabela Breton</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Statistics for Data Science</t>
+          <t>Natural Language Processing with R</t>
         </is>
       </c>
       <c r="B10">
@@ -865,54 +865,54 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>course duration not found</t>
+          <t>8 Hours</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Natural Language Processing is a sub-field of Artificial Intelligence. It is used for processing and analysing large amounts of natural language (texts). Some applications include search engines (Google), text classification (spam filters), identifying sentiments for a product (sentiment analysis), methods for discovering abstract topics in a collection of documents (topic modelling) and machine translation technologies. In this course you learn about exploratory analysis of text data, introduced to sentiment analysis of texts using sentiment lexicons and the concept of topic modelling (package topicmodels).</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>By the end of the course students will be comfortable implementing and interpreting linear models and generalized linear model in Python and be familiar with the concepts of Bayesian modelling.</t>
+          <t>At the end of this course you should be able to set text data into a form that can be used for analysis, carry out cleaning of text data, exploratory analysis of text data, use meta-data to produce interesting visual displays depicting features of the text data, carry out sentiment analysis using  sentiment lexicons and discover topics in a corpus.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>What is tidy data? What is a variable, value, and observation? Several python commands to explore the structure of the data What is the difference between a continuous and categorical variable? What is variation and covariation? ; What is a variable, value, and observation?; Several python commands to explore the structure of the data; What is the difference between a continuous and categorical variable?; What is variation and covariation?; Where Exploratory Data Analysis fits within data analysis? How to use plots to explore variation in continuous variable and categorical variables How to use plots to explore covariation between two categorical variables, two continuous variables or a categorical and continuous variable. ; How to use plots to explore variation in continuous variable and categorical variables; How to use plots to explore covariation between two categorical variables, two continuous variables or a categorical and continuous variable.;  Model Basics What is a model family and fitted model? What is the difference between a response and an explanatory variable? ; What is a model family and fitted model?; What is the difference between a response and an explanatory variable?;  Model Construction How to construct a linear model in python? What are the slope and intercept in a linear model? Picking out key information from the model table How to extract specific parameters from the model object. ; How to construct a linear model in python?; What are the slope and intercept in a linear model?; Picking out key information from the model table; How to extract specific parameters from the model object.;  Assessing Model Fit How to inspect model residuals to assess model fit? How to pick out key information from the table from a fitted model. How to use Adjusted R-squared and AIC to compare models. ; How to inspect model residuals to assess model fit?; How to pick out key information from the table from a fitted model.; How to use Adjusted R-squared and AIC to compare models.;  What is probability? ;  What is a random variable? ;  What a probability distribution is and how it differs for continuous vs. discrete random variables? ;  Be familiar with several common probability distributions used to model variation in the response variable Binomial Normal Poisson Negative Binomial ; Binomial; Normal; Poisson; Negative Binomial;  How to implement a generalized linear model in python. ; What is Baye's rule and how it is used in Bayesian statistics?; How Bayesian and Frequentist schools of thought differ?; How to implement a simple Bayesian linear model in python.</t>
+          <t>Describe the main components of language structure; Perform pre-processing (cleaning) operations on text.; Apply methods from Corpus Linguistics to garner greater insights on a corpus.; Produce word-clouds, bar charts and other basic visualisations on variables of interest.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>E learning - Not Available; Self learning - Available; Face to face - Available</t>
+          <t>E learning - Available; Self learning -  Not Available; Face to face - Available</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Participants should be familiar with Python but do not need any prior statistical training.</t>
+          <t>Competency in using the R Programming language to perform basic data manipulation is reqiured. For that refer to Intro to R (https://github.com/datasciencecampus/DSCA_Intro-R)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://github.com/datasciencecampus/DSCA_Stats4DS</t>
+          <t>https://github.com/datasciencecampus/DSCA_NLPWR</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Laurie Baker, Dan Lewis</t>
+          <t>Sonia Mazzi</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Kaveh Jahanshahi</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Version Control with Git: Github</t>
+          <t>Introduction to Reproducibility</t>
         </is>
       </c>
       <c r="B11">
@@ -920,22 +920,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>course duration not found</t>
+          <t>Course Summary</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>course summary not found</t>
+          <t>Introduction to reproducibility including, what is a reproducible analytical pipeline, writing "good code" and creating a reproducible report.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Learners will be able to use Github to create, manage and collaborate on projects.</t>
+          <t>Lead Developer Course Objective</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Use Git in their workflow; Use a selection of important Git functions to manage their workflow; Make adjustments to repositories with version control; Unify different versions of the same document</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Intermediate / Advanced</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://github.com/datasciencecampus/DSCA_Version-control-with-Git-Github</t>
+          <t>https://github.com/datasciencecampus/DSCA_reproducibility</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Sonia Mazzi</t>
+          <t>Laurie L. Baker Richard Leyshon</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -967,7 +967,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Version controlled RStudio projects</t>
+          <t>Statistics for Data Science</t>
         </is>
       </c>
       <c r="B12">
@@ -975,45 +975,155 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>course duration not found</t>
+          <t>18 Hours</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>course summary not found</t>
+          <t>This course introduces the basics of carrying out a statistical analysis in Python. It covers exploratory data analysis, constructing and interpreting linear and generalized linear models, and introduces Bayesian modelling.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>By the end of the course students will be comfortable implementing and interpreting linear models and generalized linear model in Python and be familiar with the concepts of Bayesian modelling.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>What is tidy data? What is a variable, value, and observation? Several python commands to explore the structure of the data What is the difference between a continuous and categorical variable? What is variation and covariation? ; What is a variable, value, and observation?; Several python commands to explore the structure of the data; What is the difference between a continuous and categorical variable?; What is variation and covariation?; Where Exploratory Data Analysis fits within data analysis? How to use plots to explore variation in continuous variable and categorical variables How to use plots to explore covariation between two categorical variables, two continuous variables or a categorical and continuous variable. ; How to use plots to explore variation in continuous variable and categorical variables; How to use plots to explore covariation between two categorical variables, two continuous variables or a categorical and continuous variable.;  Model Basics What is a model family and fitted model? What is the difference between a response and an explanatory variable? ; What is a model family and fitted model?; What is the difference between a response and an explanatory variable?;  Model Construction How to construct a linear model in python? What are the slope and intercept in a linear model? Picking out key information from the model table How to extract specific parameters from the model object. ; How to construct a linear model in python?; What are the slope and intercept in a linear model?; Picking out key information from the model table; How to extract specific parameters from the model object.;  Assessing Model Fit How to inspect model residuals to assess model fit? How to pick out key information from the table from a fitted model. How to use Adjusted R-squared and AIC to compare models. ; How to inspect model residuals to assess model fit?; How to pick out key information from the table from a fitted model.; How to use Adjusted R-squared and AIC to compare models.;  What is probability? ;  What is a random variable? ;  What a probability distribution is and how it differs for continuous vs. discrete random variables? ;  Be familiar with several common probability distributions used to model variation in the response variable Binomial Normal Poisson Negative Binomial ; Binomial; Normal; Poisson; Negative Binomial;  How to implement a generalized linear model in python. ; What is Baye's rule and how it is used in Bayesian statistics?; How Bayesian and Frequentist schools of thought differ?; How to implement a simple Bayesian linear model in python.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>E learning - Not Available; Self learning - Available; Face to face - Available</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Participants should be familiar with Python but do not need any prior statistical training.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://github.com/datasciencecampus/DSCA_Stats4DS</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Laurie Baker, Dan Lewis</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Version Control with Git: Github</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4 Hours</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Publications that make the used code available have generally higher impact than publications where code is not available. One important tool for code quality and code sharing is a version control system (VCS). A version control system is a tool that manages changes made to the files and directories in a project. Git, together with GitHub, is one such VCS tool.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Learners will be able to use Github to create, manage and collaborate on projects.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Use Git in their workflow; Use a selection of important Git functions to manage their workflow; Make adjustments to repositories with version control; Unify different versions of the same document</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>E learning - Not Available; Self learning - Not Available; Face to face - Available</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Intermediate / Advanced</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://github.com/datasciencecampus/DSCA_Version-control-with-Git-Github</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Sonia Mazzi</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Version controlled RStudio projects</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4 Hours</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>RStudio has the ability to use version control for R projects using a very easy to use graphical interface. In this course we will introduce how R Studio has integrated Git version control into its interface. This allows developers to efficiently track changes in their code over time and effectively collaborate with a team of programmers. This course explains how to use the Git workflow to revise and track changes to an r markdown document, ultimately publishing your own version to web.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Learners will be able to use R Studio's integrated Git features to improve their ability to track changes and collaborate in their code.</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Learn how to use the Git workflow to improve your version control &amp; collaboration; Manage the Git workflow right from the R Studio IDE</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>E learning - Not Available; Self learning - Not Available; Face to face - Available</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Intermediate R user.</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://github.com/datasciencecampus/DSCA_Version-controlled-RStudio-projects</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Sonia Mazzi</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>

--- a/output_data/course_catalogue.xlsx
+++ b/output_data/course_catalogue.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,6 +413,11 @@
           <t>course_reviewer</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>license_name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -468,6 +473,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,6 +533,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -578,6 +593,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -633,6 +653,11 @@
           <t>Richard Leyshon</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -688,6 +713,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -743,6 +773,11 @@
           <t>Kaveh Jahanshahi</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -798,6 +833,11 @@
           <t>Richard Leyshon, Kaveh Jahanshahi</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -820,12 +860,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>This course aims to:</t>
+          <t>Provide a thorough introduction into probability theory and statistical inference including maximum-likelihood and Bayesian approaches. Introduce supervised learning methods: linear and nonlinear regressions and classification algorithms. Introduce unsupervised learning methods: clustering, and dimensionality reduction. Brief introduction to Directed Graphical Models with a case study/example.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Provide a thorough introduction into probabilityb theory and statistical inference including maximum-likelihood and Bayesian approaches; Introduce supervised learning methods: linear and nonlinear regressions and classification algorithms; Introduce unsupervised learning methods: clustering, and dimensionality reduction; Breif introduction to Directed Graphical Models with a case study/example.; be able to describe the diffence between frequentist and bayessian statistics; Undrestand the fundementals of probability theory, bayesian rule and inference, and the characteristics of major probability distributions.; Get a good undrestanding of major supervised learning algorithms specifically linear in parameter regression, bayesian linear regression, and classification methods.; Get a good understanding of main unsupervised learning algorithms specifically clustering and data dimensionality reduction algorithms.; Get familiar with directed graphical method as a technique of combining supervised and unsupervised learning into one modelling framework; be prepared to built on their current knowledge or take on more advanced courses such as application of machine learning techniques in natural language processing; be prepared to apply their knowledge through formulating machine learning problems and coding using standard libraries (e.g. in R and Python)</t>
+          <t>Be able to describe the diffence between frequentist and bayesian statistics; Understand the fundementals of probability theory, bayesian rule and inference, and the characteristics of major probability distributions.; Get a good understanding of major supervised learning algorithms specifically linear in parameter regression, bayesian linear regression, and classification methods.; Get a good understanding of main unsupervised learning algorithms specifically clustering and data dimensionality reduction algorithms.; Get familiar with directed graphical method as a technique of combining supervised and unsupervised learning into one modelling framework; be prepared to build on their current knowledge or take on more advanced courses such as application of machine learning techniques in natural language processing; be prepared to apply their knowledge through formulating machine learning problems and coding using standard libraries (e.g. in R and Python)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -851,6 +891,11 @@
       <c r="K9" t="inlineStr">
         <is>
           <t>Laurie Baker  Isabela Breton</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>MIT License</t>
         </is>
       </c>
     </row>
@@ -908,6 +953,11 @@
           <t>Kaveh Jahanshahi</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -920,22 +970,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Course Summary</t>
+          <t>6 Hours</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Introduction to reproducibility including, what is a reproducible analytical pipeline, writing "good code" and creating a reproducible report.</t>
+          <t>Introduction to reproducibility. What is a reproducible analytical pipeline (RAP), writing "good code" and creating a reproducible report.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lead Developer Course Objective</t>
+          <t>Participants should gain an awareness of the importance of reproducibility in their work. Learners will also gain experience of linting code in Python and using parameterised reports in R markdown.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>represent pipelines and identify opportunities to automate; consider adherance to a programming style guide; use linting software to standardise Python scripts; use parameterised R markdown reports to improve the efficiency of report production.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -945,7 +995,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Basic familiarity with Python and R programming is assumed.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -961,6 +1011,11 @@
       <c r="K11" t="inlineStr">
         <is>
           <t>Pending</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>NULL</t>
         </is>
       </c>
     </row>
@@ -1018,6 +1073,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1073,6 +1133,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1126,6 +1191,11 @@
       <c r="K14" t="inlineStr">
         <is>
           <t>Pending</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>NULL</t>
         </is>
       </c>
     </row>

--- a/output_data/course_catalogue.xlsx
+++ b/output_data/course_catalogue.xlsx
@@ -735,7 +735,15 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Natural Language Processing is a sub-field of Artificial Intelligence. It is used for processing and analysing large amounts of natural language. Some applications include search engines (Google), text classification (spam filters), identifying sentiments for a product (sentiment analysis), methods for discovering abstract topics in a collection of documents (topic modelling) and machine translation technologies. Concepts covered include cleaning, exploring datasets through methods rooted in Corpus Linguistics, and application of feature engineering techniques to transform textual data into a numerical representation. Key techniques such as word embeddings and language modelling are also introduced as well as illustrations as to how they can be performed over a dataset.</t>
+          <t>Natural Language Processing is a sub-field of Artificial Intelligence.
+It is used for processing and analysing large amounts of natural language.
+Some applications include search engines (Google), text classification (spam filters),
+identifying sentiments for a product (sentiment analysis), methods for discovering
+abstract topics in a collection of documents (topic modelling) and machine translation technologies.
+Concepts covered include cleaning, exploring datasets through methods rooted in Corpus Linguistics,
+and application of feature engineering techniques to transform textual data into a numerical representation.
+Key techniques such as word embeddings and language modelling are also introduced as well as illustrations
+as to how they can be performed over a dataset.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -795,12 +803,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>This course is delivered through the Jupyter notebook application. It begins with a coverage of fundamental building blocks in Python -  numeric data types, strings, lists, dictionaries, sets - replete with examples. Illustrations are then provided on the use of these data types to compose code with selection and iteration constructs.  To promote modular and readable code the set-up and use of functions with parameters are also covered.</t>
+          <t>This course is delivered through the Jupyter notebook application.
+It begins with a coverage of fundamental building blocks in Python -  numeric data types, strings, lists,
+dictionaries, sets - replete with examples. Illustrations are then provided on the use of these data types
+to compose code with selection and iteration constructs.  To promote modular and readable code the set-up
+and use of functions with parameters are also covered.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Participants should attain a good understanding of basic data types in Python and associated methods and constructs that can be applied to them.</t>
+          <t>Participants should attain a good understanding of basic data types in Python and associated methods
+and constructs that can be applied to them.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -830,7 +843,8 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Richard Leyshon, Kaveh Jahanshahi</t>
+          <t>Richard Leyshon,
+Kaveh Jahanshahi</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -890,7 +904,8 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Laurie Baker  Isabela Breton</t>
+          <t>Laurie Baker 
+Isabela Breton</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -915,7 +930,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Natural Language Processing is a sub-field of Artificial Intelligence. It is used for processing and analysing large amounts of natural language (texts). Some applications include search engines (Google), text classification (spam filters), identifying sentiments for a product (sentiment analysis), methods for discovering abstract topics in a collection of documents (topic modelling) and machine translation technologies. In this course you learn about exploratory analysis of text data, introduced to sentiment analysis of texts using sentiment lexicons and the concept of topic modelling (package topicmodels).</t>
+          <t>Natural Language Processing is a sub-field of Artificial Intelligence.
+It is used for processing and analysing large amounts of natural language (texts).
+Some applications include search engines (Google), text classification (spam filters),
+identifying sentiments for a product (sentiment analysis), methods for discovering
+abstract topics in a collection of documents (topic modelling) and machine translation technologies.
+In this course you learn about exploratory analysis of text data, introduced to sentiment analysis of texts using sentiment lexicons and the concept of topic modelling (package topicmodels).</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1005,7 +1025,8 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Laurie L. Baker Richard Leyshon</t>
+          <t>Laurie L. Baker
+Richard Leyshon</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">

--- a/output_data/course_catalogue.xlsx
+++ b/output_data/course_catalogue.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,7 +542,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Data Science with R</t>
+          <t>Data Visualisation in R</t>
         </is>
       </c>
       <c r="B4">
@@ -550,59 +550,59 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12 Hours</t>
+          <t>3 Hours</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>This course gives the essential knowledge to get started with a data science project in R using the Tidyverse package (https://www.tidyverse.org). We will learn to tell stories with data using the scientific data analysis workflow and analytic tools based on the R system.</t>
+          <t>This course introduces students to the grammar of graphics and building a plot using ggplot2.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Learners will be able to use the Tidyverse to automate tasks efficiently. They will learn how to use best practice techniques in their workflow from data ingestion through to communication of results.</t>
+          <t>Students will become familiar with how a plot is built using ggplot learn to customise and create different plots.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Understand the scientific approach to the data analysis workflow and why and how R contributes to the process. ;  Be able to import data into R in different text formats, flat files, excel, SAS, STATA and SPSS files as well as data from the web. ;  Know the concept of tidy data, identify messy features in a data set and tidy it ready for analysis. ;  Use simple exploratory analysis, including visualisation, to understand the data structure and some information it contains and also to detect, be aware of, and possibly correct, data anomalies. ;  Be able to create a basic report  of  data analysis using a R notebook. ;  Work with the Tidyverse packages readr, tidyr, dplyr, stringr, ggplot2, forcats, lubridate, etc. </t>
+          <t>Be familiar with how a construct a basic plot using layers in ggplot.; Understand how variables in the data are used to determine aesthetics of the plot.; Be familiar with the concepts of tidy data.; Understand the connection between different geoms and the type of plot they produce (e.g. geom_line, geom_point).; Understand how to customise a plot using labs, theme, facet.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>E learning - Not Available; Self learning - Not Available; Face to face - Available</t>
+          <t>Online learning - Not Available; Independent learning - Not Available; Face to face - Available</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Beginner. Familiar with basic R syntax.</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://github.com/datasciencecampus/DSCA_DSWR</t>
+          <t>https://github.com/datasciencecampus/DSCA_data_visualisation_in_r</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Sonia Mazzi</t>
+          <t>Laurie Baker</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Richard Leyshon</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Introduction to ggplot2 and interactive leaflet mapping</t>
+          <t>Data Science with R</t>
         </is>
       </c>
       <c r="B5">
@@ -610,107 +610,107 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5 Hours</t>
+          <t>12 Hours</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>This course introduces students to the grammar of graphics and building a plot using ggplot2. In the second part, students are introduced to building interactive maps using leaflet.</t>
+          <t>This course gives the essential knowledge to get started with a data science project in R using the Tidyverse package (https://www.tidyverse.org). We will learn to tell stories with data using the scientific data analysis workflow and analytic tools based on the R system.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Students will become familiar with how a plot is built using ggplot and leaflet and ways to build and customise their plots using both packages.</t>
+          <t>Learners will be able to use the Tidyverse to automate tasks efficiently. They will learn how to use best practice techniques in their workflow from data ingestion through to communication of results.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>become familiar with how a plot is built using ggplot and leaflet and ways to build and customise their plots using both packages.</t>
+          <t xml:space="preserve"> Understand the scientific approach to the data analysis workflow and why and how R contributes to the process. ;  Be able to import data into R in different text formats, flat files, excel, SAS, STATA and SPSS files as well as data from the web. ;  Know the concept of tidy data, identify messy features in a data set and tidy it ready for analysis. ;  Use simple exploratory analysis, including visualisation, to understand the data structure and some information it contains and also to detect, be aware of, and possibly correct, data anomalies. ;  Be able to create a basic report  of  data analysis using a R notebook. ;  Work with the Tidyverse packages readr, tidyr, dplyr, stringr, ggplot2, forcats, lubridate, etc. </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>E learning - Available; Self learning - Not Available; Face to face - Available</t>
+          <t>E learning - Not Available; Self learning - Not Available; Face to face - Available</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Beginner. Familiar with basic R syntax.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://github.com/datasciencecampus/DSCA_ggplot-leaflet-map-training</t>
+          <t>https://github.com/datasciencecampus/DSCA_DSWR</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Laurie Baker</t>
+          <t>Sonia Mazzi</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Richard Leyshon</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>NULL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Introduction to R</t>
+          <t>Intermediate Python Programming</t>
         </is>
       </c>
       <c r="B6">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10 Hours</t>
+          <t>12 Hours</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Designed for statistical analysis and reporting, R is a powerful tool for data analysis. This course focuses on the application of key data skills, providing opportunities to build confidence, independence, and resilience. This 1 day course will introduce you to the building blocks of R including objects, vectors, and data frames and will examine common data types (e.g. character, factor). During the course we will also cover data manipulation using dplyr and data visualisation using ggplot with examples from the gapminder dataset.</t>
+          <t>This course is delivered through the Jupyter notebook application. It begins with a comprehensive overview of the Pandas library. The two main data structures in this library – the series and dataframe and associated methods are explained with clarifying examples on how to select, filter, aggregate and merge data. Keys tasks like handling null values, applying functions and plotting are also highlighted.  Each section has exercises for participants to attempt to consolidate their learning.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The aim of this course is to equip you with a toolbox to get started with data in R aand Rstudio and to provide a sound foundation from which to continue your learning beyond the classroom.</t>
+          <t>Participants should become knowledgeable in how to deal with tabular data through using the specialised data structures found in the Pandas library and how to perform key analysis through methods available in this library.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Familiarise themselves with RStudio and R Notebooks, which is what we’ll use to interact with R. ;  Learn about the simple data structures in R: object, vector, and data frame. ;  Explore R's basic data types = integer, character, numeric, etc. ;  Learn to read data into R. ;  Introduction to data wrangling using the tidyverse set of metapackages. ;  Use the tidyverse verbs to explore the gapminder data set which includes statistics for countries around the world including life expectancy, population, and GDP per capita. ;  Learn to merge datasets using left_join. ;  Create meaningful visualisations of the data using ggplot2. ;  Learn where to go for help. </t>
+          <t>Describe specialised data structures - the series and dataframe in the Pandas library; Select, filter, aggregate, merge data in the Pandas dataframe; Execute specific operations to handle null values and apply functions.; Plot data in a dataframe column(s).</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>E learning - Available; Self learning - Available Soon; Face to face - Available</t>
+          <t>E learning - Available; Self learning - Available; Face to face - Available</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>This courses is aimed at complete beginners with no prior programming experience.</t>
+          <t>Completion of introduction to python course. Basic literacy in python code.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://github.com/datasciencecampus/DSCA_Intro-R</t>
+          <t>https://github.com/datasciencecampus/DSCA_intermediate-python</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Laurie Baker</t>
+          <t>Saliha Minhas</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Richard Leyshon, Kaveh Jahanshahi</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -722,63 +722,55 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Introduction to Natural Language Programming with Python</t>
+          <t>Introduction to R</t>
         </is>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6 Hours</t>
+          <t>10 Hours</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Natural Language Processing is a sub-field of Artificial Intelligence.
-It is used for processing and analysing large amounts of natural language.
-Some applications include search engines (Google), text classification (spam filters),
-identifying sentiments for a product (sentiment analysis), methods for discovering
-abstract topics in a collection of documents (topic modelling) and machine translation technologies.
-Concepts covered include cleaning, exploring datasets through methods rooted in Corpus Linguistics,
-and application of feature engineering techniques to transform textual data into a numerical representation.
-Key techniques such as word embeddings and language modelling are also introduced as well as illustrations
-as to how they can be performed over a dataset.</t>
+          <t>Designed for statistical analysis and reporting, R is a powerful tool for data analysis. This course focuses on the application of key data skills, providing opportunities to build confidence, independence, and resilience. This 1 day course will introduce you to the building blocks of R including objects, vectors, and data frames and will examine common data types (e.g. character, factor). During the course we will also cover data manipulation using dplyr and data visualisation using ggplot with examples from the gapminder dataset.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Participants should gain competancy in using core techniques to handle natural language content to undertake analysis to detect patterns and derive insights for development of applications like mentioned in course summary</t>
+          <t>The aim of this course is to equip you with a toolbox to get started with data in R aand Rstudio and to provide a sound foundation from which to continue your learning beyond the classroom.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Describe the main components of language structure; Perform pre-processing (cleaning) operations on text.; Apply methods from Corpus Linguistics to garner greater insights on a corpus.; Produce word-clouds, bar charts and other basic visualisations on variables of interest.; Produce clusters using the k-means algorithm to uncover patterns in a corpus; Transform text to vectors using approaches delineated.; Produce word embeddings on a corpus; Calculate the probability of a sentence using a language modelling approach</t>
+          <t xml:space="preserve"> Familiarise themselves with RStudio and R Notebooks, which is what we’ll use to interact with R. ;  Learn about the simple data structures in R: object, vector, and data frame. ;  Explore R's basic data types = integer, character, numeric, etc. ;  Learn to read data into R. ;  Introduction to data wrangling using the tidyverse set of metapackages. ;  Use the tidyverse verbs to explore the gapminder data set which includes statistics for countries around the world including life expectancy, population, and GDP per capita. ;  Learn to merge datasets using left_join. ;  Create meaningful visualisations of the data using ggplot2. ;  Learn where to go for help. </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>E learning - Available; Self learning -  Not Available; Face to face - Available</t>
+          <t>E learning - Available; Self learning - Available Soon; Face to face - Available</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Competency in using the Python Programming language to perform basic data manipulation is reqiured.</t>
+          <t>This courses is aimed at complete beginners with no prior programming experience.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://github.com/datasciencecampus/DSCA_introNLPpython</t>
+          <t>https://github.com/datasciencecampus/DSCA_Intro-R</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Saliha Minhas</t>
+          <t>Laurie Baker</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Kaveh Jahanshahi</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -790,7 +782,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Introduction to Natural Language Programming with Python</t>
         </is>
       </c>
       <c r="B8">
@@ -798,42 +790,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6 to 8 Hours</t>
+          <t>6 Hours</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>This course is delivered through the Jupyter notebook application.
-It begins with a coverage of fundamental building blocks in Python -  numeric data types, strings, lists,
-dictionaries, sets - replete with examples. Illustrations are then provided on the use of these data types
-to compose code with selection and iteration constructs.  To promote modular and readable code the set-up
-and use of functions with parameters are also covered.</t>
+          <t>Natural Language Processing is a sub-field of Artificial Intelligence. It is used for processing and analysing large amounts of natural language. Some applications include search engines (Google), text classification (spam filters), identifying sentiments for a product (sentiment analysis), methods for discovering abstract topics in a collection of documents (topic modelling) and machine translation technologies. Concepts covered include cleaning, exploring datasets through methods rooted in Corpus Linguistics, and application of feature engineering techniques to transform textual data into a numerical representation. Key techniques such as word embeddings and language modelling are also introduced as well as illustrations as to how they can be performed over a dataset.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Participants should attain a good understanding of basic data types in Python and associated methods
-and constructs that can be applied to them.</t>
+          <t>Participants should gain competancy in using core techniques to handle natural language content to undertake analysis to detect patterns and derive insights for development of applications like mentioned in course summary</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Describe basic data types in Python; Apply methods to basic data types; Enact selection and iteration over basic data types; Construct functions to compose modular code</t>
+          <t>Describe the main components of language structure; Perform pre-processing (cleaning) operations on text.; Apply methods from Corpus Linguistics to garner greater insights on a corpus.; Produce word-clouds, bar charts and other basic visualisations on variables of interest.; Produce clusters using the k-means algorithm to uncover patterns in a corpus; Transform text to vectors using approaches delineated.; Produce word embeddings on a corpus; Calculate the probability of a sentence using a language modelling approach</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>E learning - Available; Self learning - Available Soon; Face to face - Available</t>
+          <t>E learning - Available; Self learning -  Not Available; Face to face - Available</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No previous experience in coding is required though a  basic digital literacy assumed.</t>
+          <t>Competency in using the Python Programming language to perform basic data manipulation is reqiured.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://github.com/datasciencecampus/DSCA_intropython</t>
+          <t>https://github.com/datasciencecampus/DSCA_introNLPpython</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -843,8 +830,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Richard Leyshon,
-Kaveh Jahanshahi</t>
+          <t>Kaveh Jahanshahi Jonathon Mellor</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -856,68 +842,67 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fundemental theories in Machine Learning</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8 Hours</t>
+          <t>6 to 8 Hours</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>This course covers the fundemental topics in machine learning and prepare audience for more advanced topics (e.g. image processing, NLP, and deep learning) and practical courses such as training and application of machine learning algorithms in R and Python. The course includes combination of graphical presentation and intuition and essential mathematical notations.</t>
+          <t>This course is delivered through the Jupyter notebook application. It begins with a coverage of fundamental building blocks in Python -  numeric data types, strings, lists, dictionaries, sets - replete with examples. Illustrations are then provided on the use of these data types to compose code with selection and iteration constructs.  To promote modular and readable code the set-up and use of functions with parameters are also covered.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Provide a thorough introduction into probability theory and statistical inference including maximum-likelihood and Bayesian approaches. Introduce supervised learning methods: linear and nonlinear regressions and classification algorithms. Introduce unsupervised learning methods: clustering, and dimensionality reduction. Brief introduction to Directed Graphical Models with a case study/example.</t>
+          <t>Participants should attain a good understanding of basic data types in Python and associated methods and constructs that can be applied to them.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Be able to describe the diffence between frequentist and bayesian statistics; Understand the fundementals of probability theory, bayesian rule and inference, and the characteristics of major probability distributions.; Get a good understanding of major supervised learning algorithms specifically linear in parameter regression, bayesian linear regression, and classification methods.; Get a good understanding of main unsupervised learning algorithms specifically clustering and data dimensionality reduction algorithms.; Get familiar with directed graphical method as a technique of combining supervised and unsupervised learning into one modelling framework; be prepared to build on their current knowledge or take on more advanced courses such as application of machine learning techniques in natural language processing; be prepared to apply their knowledge through formulating machine learning problems and coding using standard libraries (e.g. in R and Python)</t>
+          <t>Describe basic data types in Python; Apply methods to basic data types; Enact selection and iteration over basic data types; Construct functions to compose modular code</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>E learning - Available; Self learning -  Not Available; Face to face - Available</t>
+          <t>E learning - Available; Self learning - Available Soon; Face to face - Available</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Some basic knowledge in linear algebra and statistics is expected.</t>
+          <t>No previous experience in coding is required though a  basic digital literacy assumed.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://github.com/datasciencecampus/DSCA_ML_theory</t>
+          <t>https://github.com/datasciencecampus/DSCA_intropython</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Kaveh Jahanshahi</t>
+          <t>Saliha Minhas</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Laurie Baker 
-Isabela Breton</t>
+          <t>Richard Leyshon, Kaveh Jahanshahi</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>MIT License</t>
+          <t>NULL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Natural Language Processing with R</t>
+          <t>Fundemental theories in Machine Learning</t>
         </is>
       </c>
       <c r="B10">
@@ -930,22 +915,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Natural Language Processing is a sub-field of Artificial Intelligence.
-It is used for processing and analysing large amounts of natural language (texts).
-Some applications include search engines (Google), text classification (spam filters),
-identifying sentiments for a product (sentiment analysis), methods for discovering
-abstract topics in a collection of documents (topic modelling) and machine translation technologies.
-In this course you learn about exploratory analysis of text data, introduced to sentiment analysis of texts using sentiment lexicons and the concept of topic modelling (package topicmodels).</t>
+          <t>This course covers the fundemental topics in machine learning and prepare audience for more advanced topics (e.g. image processing, NLP, and deep learning) and practical courses such as training and application of machine learning algorithms in R and Python. The course includes combination of graphical presentation and intuition and essential mathematical notations.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>At the end of this course you should be able to set text data into a form that can be used for analysis, carry out cleaning of text data, exploratory analysis of text data, use meta-data to produce interesting visual displays depicting features of the text data, carry out sentiment analysis using  sentiment lexicons and discover topics in a corpus.</t>
+          <t>Provide a thorough introduction into probability theory and statistical inference including maximum-likelihood and Bayesian approaches. Introduce supervised learning methods: linear and nonlinear regressions and classification algorithms. Introduce unsupervised learning methods: clustering, and dimensionality reduction. Brief introduction to Directed Graphical Models with a case study/example.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Describe the main components of language structure; Perform pre-processing (cleaning) operations on text.; Apply methods from Corpus Linguistics to garner greater insights on a corpus.; Produce word-clouds, bar charts and other basic visualisations on variables of interest.</t>
+          <t>Be able to describe the diffence between frequentist and bayesian statistics; Understand the fundementals of probability theory, bayesian rule and inference, and the characteristics of major probability distributions.; Get a good understanding of major supervised learning algorithms specifically linear in parameter regression, bayesian linear regression, and classification methods.; Get a good understanding of main unsupervised learning algorithms specifically clustering and data dimensionality reduction algorithms.; Get familiar with directed graphical method as a technique of combining supervised and unsupervised learning into one modelling framework; be prepared to build on their current knowledge or take on more advanced courses such as application of machine learning techniques in natural language processing; be prepared to apply their knowledge through formulating machine learning problems and coding using standard libraries (e.g. in R and Python)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -955,34 +935,34 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Competency in using the R Programming language to perform basic data manipulation is reqiured. For that refer to Intro to R (https://github.com/datasciencecampus/DSCA_Intro-R)</t>
+          <t>Some basic knowledge in linear algebra and statistics is expected.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://github.com/datasciencecampus/DSCA_NLPWR</t>
+          <t>https://github.com/datasciencecampus/DSCA_ML_theory</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Sonia Mazzi</t>
+          <t>Kaveh Jahanshahi</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Kaveh Jahanshahi</t>
+          <t>Laurie Baker  Isabela Breton</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>MIT License</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Introduction to Reproducibility</t>
+          <t>Natural Language Processing with R</t>
         </is>
       </c>
       <c r="B11">
@@ -990,48 +970,47 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6 Hours</t>
+          <t>8 Hours</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Introduction to reproducibility. What is a reproducible analytical pipeline (RAP), writing "good code" and creating a reproducible report.</t>
+          <t>Natural Language Processing is a sub-field of Artificial Intelligence. It is used for processing and analysing large amounts of natural language (texts). Some applications include search engines (Google), text classification (spam filters), identifying sentiments for a product (sentiment analysis), methods for discovering abstract topics in a collection of documents (topic modelling) and machine translation technologies. In this course you learn about exploratory analysis of text data, introduced to sentiment analysis of texts using sentiment lexicons and the concept of topic modelling (package topicmodels).</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Participants should gain an awareness of the importance of reproducibility in their work. Learners will also gain experience of linting code in Python and using parameterised reports in R markdown.</t>
+          <t>At the end of this course you should be able to set text data into a form that can be used for analysis, carry out cleaning of text data, exploratory analysis of text data, use meta-data to produce interesting visual displays depicting features of the text data, carry out sentiment analysis using  sentiment lexicons and discover topics in a corpus.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>represent pipelines and identify opportunities to automate; consider adherance to a programming style guide; use linting software to standardise Python scripts; use parameterised R markdown reports to improve the efficiency of report production.</t>
+          <t>Describe the main components of language structure; Perform pre-processing (cleaning) operations on text.; Apply methods from Corpus Linguistics to garner greater insights on a corpus.; Produce word-clouds, bar charts and other basic visualisations on variables of interest.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>E learning - Not Available; Self learning - Not Available; Face to face - Available</t>
+          <t>E learning - Available; Self learning -  Not Available; Face to face - Available</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Basic familiarity with Python and R programming is assumed.</t>
+          <t>Competency in using the R Programming language to perform basic data manipulation is reqiured. For that refer to Intro to R (https://github.com/datasciencecampus/DSCA_Intro-R)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://github.com/datasciencecampus/DSCA_reproducibility</t>
+          <t>https://github.com/datasciencecampus/DSCA_NLPWR</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Laurie L. Baker
-Richard Leyshon</t>
+          <t>Sonia Mazzi</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Kaveh Jahanshahi</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1043,7 +1022,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Statistics for Data Science</t>
+          <t>Introduction to Reproducibility</t>
         </is>
       </c>
       <c r="B12">
@@ -1051,42 +1030,42 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18 Hours</t>
+          <t>6 Hours</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>This course introduces the basics of carrying out a statistical analysis in Python. It covers exploratory data analysis, constructing and interpreting linear and generalized linear models, and introduces Bayesian modelling.</t>
+          <t>Introduction to reproducibility. What is a reproducible analytical pipeline (RAP), writing "good code" and creating a reproducible report.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>By the end of the course students will be comfortable implementing and interpreting linear models and generalized linear model in Python and be familiar with the concepts of Bayesian modelling.</t>
+          <t>Participants should gain an awareness of the importance of reproducibility in their work. Learners will also gain experience of linting code in Python and using parameterised reports in R markdown.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>What is tidy data? What is a variable, value, and observation? Several python commands to explore the structure of the data What is the difference between a continuous and categorical variable? What is variation and covariation? ; What is a variable, value, and observation?; Several python commands to explore the structure of the data; What is the difference between a continuous and categorical variable?; What is variation and covariation?; Where Exploratory Data Analysis fits within data analysis? How to use plots to explore variation in continuous variable and categorical variables How to use plots to explore covariation between two categorical variables, two continuous variables or a categorical and continuous variable. ; How to use plots to explore variation in continuous variable and categorical variables; How to use plots to explore covariation between two categorical variables, two continuous variables or a categorical and continuous variable.;  Model Basics What is a model family and fitted model? What is the difference between a response and an explanatory variable? ; What is a model family and fitted model?; What is the difference between a response and an explanatory variable?;  Model Construction How to construct a linear model in python? What are the slope and intercept in a linear model? Picking out key information from the model table How to extract specific parameters from the model object. ; How to construct a linear model in python?; What are the slope and intercept in a linear model?; Picking out key information from the model table; How to extract specific parameters from the model object.;  Assessing Model Fit How to inspect model residuals to assess model fit? How to pick out key information from the table from a fitted model. How to use Adjusted R-squared and AIC to compare models. ; How to inspect model residuals to assess model fit?; How to pick out key information from the table from a fitted model.; How to use Adjusted R-squared and AIC to compare models.;  What is probability? ;  What is a random variable? ;  What a probability distribution is and how it differs for continuous vs. discrete random variables? ;  Be familiar with several common probability distributions used to model variation in the response variable Binomial Normal Poisson Negative Binomial ; Binomial; Normal; Poisson; Negative Binomial;  How to implement a generalized linear model in python. ; What is Baye's rule and how it is used in Bayesian statistics?; How Bayesian and Frequentist schools of thought differ?; How to implement a simple Bayesian linear model in python.</t>
+          <t>represent pipelines and identify opportunities to automate; consider adherance to a programming style guide; use linting software to standardise Python scripts; use parameterised R markdown reports to improve the efficiency of report production.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>E learning - Not Available; Self learning - Available; Face to face - Available</t>
+          <t>E learning - Not Available; Self learning - Not Available; Face to face - Available</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Participants should be familiar with Python but do not need any prior statistical training.</t>
+          <t>Basic familiarity with Python and R programming is assumed.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://github.com/datasciencecampus/DSCA_Stats4DS</t>
+          <t>https://github.com/datasciencecampus/DSCA_reproducibility</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Laurie Baker, Dan Lewis</t>
+          <t>Laurie L. Baker Richard Leyshon</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1103,7 +1082,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Version Control with Git: Github</t>
+          <t>Statistics for Data Science</t>
         </is>
       </c>
       <c r="B13">
@@ -1111,42 +1090,42 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4 Hours</t>
+          <t>18 Hours</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Publications that make the used code available have generally higher impact than publications where code is not available. One important tool for code quality and code sharing is a version control system (VCS). A version control system is a tool that manages changes made to the files and directories in a project. Git, together with GitHub, is one such VCS tool.</t>
+          <t>This course introduces the basics of carrying out a statistical analysis in Python. It covers exploratory data analysis, constructing and interpreting linear and generalized linear models, and introduces Bayesian modelling.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Learners will be able to use Github to create, manage and collaborate on projects.</t>
+          <t>By the end of the course students will be comfortable implementing and interpreting linear models and generalized linear model in Python and be familiar with the concepts of Bayesian modelling.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Use Git in their workflow; Use a selection of important Git functions to manage their workflow; Make adjustments to repositories with version control; Unify different versions of the same document</t>
+          <t>What is tidy data? What is a variable, value, and observation? Several python commands to explore the structure of the data What is the difference between a continuous and categorical variable? What is variation and covariation? ; What is a variable, value, and observation?; Several python commands to explore the structure of the data; What is the difference between a continuous and categorical variable?; What is variation and covariation?; Where Exploratory Data Analysis fits within data analysis? How to use plots to explore variation in continuous variable and categorical variables How to use plots to explore covariation between two categorical variables, two continuous variables or a categorical and continuous variable. ; How to use plots to explore variation in continuous variable and categorical variables; How to use plots to explore covariation between two categorical variables, two continuous variables or a categorical and continuous variable.;  Model Basics What is a model family and fitted model? What is the difference between a response and an explanatory variable? ; What is a model family and fitted model?; What is the difference between a response and an explanatory variable?;  Model Construction How to construct a linear model in python? What are the slope and intercept in a linear model? Picking out key information from the model table How to extract specific parameters from the model object. ; How to construct a linear model in python?; What are the slope and intercept in a linear model?; Picking out key information from the model table; How to extract specific parameters from the model object.;  Assessing Model Fit How to inspect model residuals to assess model fit? How to pick out key information from the table from a fitted model. How to use Adjusted R-squared and AIC to compare models. ; How to inspect model residuals to assess model fit?; How to pick out key information from the table from a fitted model.; How to use Adjusted R-squared and AIC to compare models.;  What is probability? ;  What is a random variable? ;  What a probability distribution is and how it differs for continuous vs. discrete random variables? ;  Be familiar with several common probability distributions used to model variation in the response variable Binomial Normal Poisson Negative Binomial ; Binomial; Normal; Poisson; Negative Binomial;  How to implement a generalized linear model in python. ; What is Baye's rule and how it is used in Bayesian statistics?; How Bayesian and Frequentist schools of thought differ?; How to implement a simple Bayesian linear model in python.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>E learning - Not Available; Self learning - Not Available; Face to face - Available</t>
+          <t>E learning - Not Available; Self learning - Available; Face to face - Available</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Intermediate / Advanced</t>
+          <t>Participants should be familiar with Python but do not need any prior statistical training.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://github.com/datasciencecampus/DSCA_Version-control-with-Git-Github</t>
+          <t>https://github.com/datasciencecampus/DSCA_Stats4DS</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Sonia Mazzi</t>
+          <t>Laurie Baker, Dan Lewis</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1163,7 +1142,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Version controlled RStudio projects</t>
+          <t>Version Control with Git: Github</t>
         </is>
       </c>
       <c r="B14">
@@ -1176,45 +1155,105 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Publications that make the used code available have generally higher impact than publications where code is not available. One important tool for code quality and code sharing is a version control system (VCS). A version control system is a tool that manages changes made to the files and directories in a project. Git, together with GitHub, is one such VCS tool.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Learners will be able to use Github to create, manage and collaborate on projects.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Use Git in their workflow; Use a selection of important Git functions to manage their workflow; Make adjustments to repositories with version control; Unify different versions of the same document</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>E learning - Not Available; Self learning - Not Available; Face to face - Available</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Intermediate / Advanced</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://github.com/datasciencecampus/DSCA_Version-control-with-Git-Github</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Sonia Mazzi</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Version controlled RStudio projects</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4 Hours</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>RStudio has the ability to use version control for R projects using a very easy to use graphical interface. In this course we will introduce how R Studio has integrated Git version control into its interface. This allows developers to efficiently track changes in their code over time and effectively collaborate with a team of programmers. This course explains how to use the Git workflow to revise and track changes to an r markdown document, ultimately publishing your own version to web.</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Learners will be able to use R Studio's integrated Git features to improve their ability to track changes and collaborate in their code.</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Learn how to use the Git workflow to improve your version control &amp; collaboration; Manage the Git workflow right from the R Studio IDE</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>E learning - Not Available; Self learning - Not Available; Face to face - Available</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Intermediate R user.</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://github.com/datasciencecampus/DSCA_Version-controlled-RStudio-projects</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Sonia Mazzi</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>NULL</t>
         </is>
